--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="27880" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="7320" yWindow="6240" windowWidth="27700" windowHeight="18000" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="team" sheetId="4" r:id="rId3"/>
     <sheet name="rm_team" sheetId="2" r:id="rId4"/>
     <sheet name="rm_cust" sheetId="5" r:id="rId5"/>
+    <sheet name="actions" sheetId="6" r:id="rId6"/>
+    <sheet name="rate" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="55">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +212,46 @@
   </si>
   <si>
     <t>rm10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: action 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: action 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: action 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +609,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,9 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3341,7 +3381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3588,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E100"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4811,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("insert into rm_customer_map values(", A81, ",'", B81, "',", C81,");")</f>
         <v>insert into rm_customer_map values(81,'rm9',81);</v>
       </c>
     </row>
@@ -5098,6 +5138,155 @@
       <c r="E100" t="str">
         <f t="shared" si="1"/>
         <v>insert into rm_customer_map values(100,'rm10',100);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE("insert into action values(", A1, ",'", B1, "','", C1, "','", D1,"');")</f>
+        <v>insert into action values(1,'P','rm1','TODO: action 1');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F3" si="0">CONCATENATE("insert into action values(", A2, ",'", B2, "','", C2, "','", D2,"');")</f>
+        <v>insert into action values(2,'P','rm1','TODO: action 2');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into action values(3,'P','rm1','TODO: action 3');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("insert into rate values('",A1,"',",B1,");")</f>
+        <v>insert into rate values('JPY',0.0089);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D5" si="0">CONCATENATE("insert into rate values('",A2,"',",B2,");")</f>
+        <v>insert into rate values('HKD',0.1276);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>1.1315999999999999</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into rate values('EUR',1.1316);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>0.1434</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into rate values('CNY',0.1434);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>1.2753000000000001</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into rate values('GBP',1.2753);</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="6240" windowWidth="27700" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
-    <sheet name="rm" sheetId="3" r:id="rId2"/>
-    <sheet name="team" sheetId="4" r:id="rId3"/>
-    <sheet name="rm_team" sheetId="2" r:id="rId4"/>
-    <sheet name="rm_cust" sheetId="5" r:id="rId5"/>
-    <sheet name="actions" sheetId="6" r:id="rId6"/>
-    <sheet name="rate" sheetId="7" r:id="rId7"/>
+    <sheet name="account" sheetId="8" r:id="rId2"/>
+    <sheet name="rm" sheetId="3" r:id="rId3"/>
+    <sheet name="team" sheetId="4" r:id="rId4"/>
+    <sheet name="rm_team" sheetId="2" r:id="rId5"/>
+    <sheet name="rm_cust" sheetId="5" r:id="rId6"/>
+    <sheet name="actions" sheetId="6" r:id="rId7"/>
+    <sheet name="rate" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="56">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +255,10 @@
     <t>GBP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -324,9 +329,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,7 +615,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3125,6 +3131,9627 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G400"/>
+  <sheetViews>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G400"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("acct ", C1)</f>
+        <v>acct 1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>36526</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("insert into account values(", A1, ", ", B1, ", ", C1, ", '", D1, "', '", TEXT(E1, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(1, 1, 1, 'acct 1', '2000-01-01');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE("acct ", C2)</f>
+        <v>acct 1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>E1+10</f>
+        <v>36536</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="1">CONCATENATE("insert into account values(", A2, ", ", B2, ", ", C2, ", '", D2, "', '", TEXT(E2, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(2, 2, 1, 'acct 1', '2000-01-11');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="2">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="3">E2+10</f>
+        <v>36546</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(3, 3, 1, 'acct 1', '2000-01-21');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="3"/>
+        <v>36556</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(4, 4, 1, 'acct 1', '2000-01-31');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="3"/>
+        <v>36566</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(5, 5, 1, 'acct 1', '2000-02-10');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>36576</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(6, 6, 1, 'acct 1', '2000-02-20');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>36586</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(7, 7, 1, 'acct 1', '2000-03-01');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>36596</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(8, 8, 1, 'acct 1', '2000-03-11');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>36606</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(9, 9, 1, 'acct 1', '2000-03-21');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>36616</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(10, 10, 1, 'acct 1', '2000-03-31');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>36626</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(11, 11, 1, 'acct 1', '2000-04-10');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>36636</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(12, 12, 1, 'acct 1', '2000-04-20');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>36646</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(13, 13, 1, 'acct 1', '2000-04-30');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>36656</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(14, 14, 1, 'acct 1', '2000-05-10');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>36666</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(15, 15, 1, 'acct 1', '2000-05-20');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>36676</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(16, 16, 1, 'acct 1', '2000-05-30');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>36686</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(17, 17, 1, 'acct 1', '2000-06-09');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>36696</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(18, 18, 1, 'acct 1', '2000-06-19');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>36706</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(19, 19, 1, 'acct 1', '2000-06-29');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>36716</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(20, 20, 1, 'acct 1', '2000-07-09');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>36726</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(21, 21, 1, 'acct 1', '2000-07-19');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>36736</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(22, 22, 1, 'acct 1', '2000-07-29');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>36746</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(23, 23, 1, 'acct 1', '2000-08-08');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="3"/>
+        <v>36756</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(24, 24, 1, 'acct 1', '2000-08-18');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>36766</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(25, 25, 1, 'acct 1', '2000-08-28');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>36776</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(26, 26, 1, 'acct 1', '2000-09-07');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="3"/>
+        <v>36786</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(27, 27, 1, 'acct 1', '2000-09-17');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>36796</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(28, 28, 1, 'acct 1', '2000-09-27');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>36806</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(29, 29, 1, 'acct 1', '2000-10-07');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>36816</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(30, 30, 1, 'acct 1', '2000-10-17');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>36826</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(31, 31, 1, 'acct 1', '2000-10-27');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>36836</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(32, 32, 1, 'acct 1', '2000-11-06');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>36846</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(33, 33, 1, 'acct 1', '2000-11-16');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>36856</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(34, 34, 1, 'acct 1', '2000-11-26');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>36866</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(35, 35, 1, 'acct 1', '2000-12-06');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>36876</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(36, 36, 1, 'acct 1', '2000-12-16');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>36886</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(37, 37, 1, 'acct 1', '2000-12-26');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>36896</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(38, 38, 1, 'acct 1', '2001-01-05');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>36906</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(39, 39, 1, 'acct 1', '2001-01-15');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>36916</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(40, 40, 1, 'acct 1', '2001-01-25');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>36926</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(41, 41, 1, 'acct 1', '2001-02-04');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>36936</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(42, 42, 1, 'acct 1', '2001-02-14');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>36946</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(43, 43, 1, 'acct 1', '2001-02-24');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>36956</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(44, 44, 1, 'acct 1', '2001-03-06');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="3"/>
+        <v>36966</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(45, 45, 1, 'acct 1', '2001-03-16');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="3"/>
+        <v>36976</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(46, 46, 1, 'acct 1', '2001-03-26');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="3"/>
+        <v>36986</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(47, 47, 1, 'acct 1', '2001-04-05');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="3"/>
+        <v>36996</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(48, 48, 1, 'acct 1', '2001-04-15');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="3"/>
+        <v>37006</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(49, 49, 1, 'acct 1', '2001-04-25');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="3"/>
+        <v>37016</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(50, 50, 1, 'acct 1', '2001-05-05');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="3"/>
+        <v>37026</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(51, 51, 1, 'acct 1', '2001-05-15');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="3"/>
+        <v>37036</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(52, 52, 1, 'acct 1', '2001-05-25');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>37046</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(53, 53, 1, 'acct 1', '2001-06-04');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="3"/>
+        <v>37056</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(54, 54, 1, 'acct 1', '2001-06-14');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="3"/>
+        <v>37066</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(55, 55, 1, 'acct 1', '2001-06-24');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="3"/>
+        <v>37076</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(56, 56, 1, 'acct 1', '2001-07-04');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="3"/>
+        <v>37086</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(57, 57, 1, 'acct 1', '2001-07-14');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="3"/>
+        <v>37096</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(58, 58, 1, 'acct 1', '2001-07-24');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="3"/>
+        <v>37106</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(59, 59, 1, 'acct 1', '2001-08-03');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="3"/>
+        <v>37116</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(60, 60, 1, 'acct 1', '2001-08-13');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="3"/>
+        <v>37126</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(61, 61, 1, 'acct 1', '2001-08-23');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="3"/>
+        <v>37136</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(62, 62, 1, 'acct 1', '2001-09-02');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="3"/>
+        <v>37146</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(63, 63, 1, 'acct 1', '2001-09-12');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="3"/>
+        <v>37156</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(64, 64, 1, 'acct 1', '2001-09-22');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="3"/>
+        <v>37166</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into account values(65, 65, 1, 'acct 1', '2001-10-02');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="4">CONCATENATE("acct ", C66)</f>
+        <v>acct 1</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="3"/>
+        <v>37176</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G129" si="5">CONCATENATE("insert into account values(", A66, ", ", B66, ", ", C66, ", '", D66, "', '", TEXT(E66, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(66, 66, 1, 'acct 1', '2001-10-12');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="6">A66+1</f>
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E130" si="7">E66+10</f>
+        <v>37186</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(67, 67, 1, 'acct 1', '2001-10-22');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="7"/>
+        <v>37196</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(68, 68, 1, 'acct 1', '2001-11-01');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="7"/>
+        <v>37206</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(69, 69, 1, 'acct 1', '2001-11-11');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="7"/>
+        <v>37216</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(70, 70, 1, 'acct 1', '2001-11-21');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="7"/>
+        <v>37226</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(71, 71, 1, 'acct 1', '2001-12-01');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="7"/>
+        <v>37236</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(72, 72, 1, 'acct 1', '2001-12-11');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>37246</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(73, 73, 1, 'acct 1', '2001-12-21');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="7"/>
+        <v>37256</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(74, 74, 1, 'acct 1', '2001-12-31');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="7"/>
+        <v>37266</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(75, 75, 1, 'acct 1', '2002-01-10');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="7"/>
+        <v>37276</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(76, 76, 1, 'acct 1', '2002-01-20');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="7"/>
+        <v>37286</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(77, 77, 1, 'acct 1', '2002-01-30');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="7"/>
+        <v>37296</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(78, 78, 1, 'acct 1', '2002-02-09');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="7"/>
+        <v>37306</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(79, 79, 1, 'acct 1', '2002-02-19');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="7"/>
+        <v>37316</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(80, 80, 1, 'acct 1', '2002-03-01');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="7"/>
+        <v>37326</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(81, 81, 1, 'acct 1', '2002-03-11');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="7"/>
+        <v>37336</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(82, 82, 1, 'acct 1', '2002-03-21');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="7"/>
+        <v>37346</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(83, 83, 1, 'acct 1', '2002-03-31');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="7"/>
+        <v>37356</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(84, 84, 1, 'acct 1', '2002-04-10');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="7"/>
+        <v>37366</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(85, 85, 1, 'acct 1', '2002-04-20');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="7"/>
+        <v>37376</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(86, 86, 1, 'acct 1', '2002-04-30');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="7"/>
+        <v>37386</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(87, 87, 1, 'acct 1', '2002-05-10');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="7"/>
+        <v>37396</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(88, 88, 1, 'acct 1', '2002-05-20');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="7"/>
+        <v>37406</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(89, 89, 1, 'acct 1', '2002-05-30');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="7"/>
+        <v>37416</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(90, 90, 1, 'acct 1', '2002-06-09');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="7"/>
+        <v>37426</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(91, 91, 1, 'acct 1', '2002-06-19');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="7"/>
+        <v>37436</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(92, 92, 1, 'acct 1', '2002-06-29');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="7"/>
+        <v>37446</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(93, 93, 1, 'acct 1', '2002-07-09');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="7"/>
+        <v>37456</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(94, 94, 1, 'acct 1', '2002-07-19');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="7"/>
+        <v>37466</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(95, 95, 1, 'acct 1', '2002-07-29');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="7"/>
+        <v>37476</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(96, 96, 1, 'acct 1', '2002-08-08');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="7"/>
+        <v>37486</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(97, 97, 1, 'acct 1', '2002-08-18');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="7"/>
+        <v>37496</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(98, 98, 1, 'acct 1', '2002-08-28');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="7"/>
+        <v>37506</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(99, 99, 1, 'acct 1', '2002-09-07');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 1</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="7"/>
+        <v>37516</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(100, 100, 1, 'acct 1', '2002-09-17');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="7"/>
+        <v>37526</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(101, 1, 2, 'acct 2', '2002-09-27');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="7"/>
+        <v>37536</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(102, 2, 2, 'acct 2', '2002-10-07');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="7"/>
+        <v>37546</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(103, 3, 2, 'acct 2', '2002-10-17');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="7"/>
+        <v>37556</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(104, 4, 2, 'acct 2', '2002-10-27');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="7"/>
+        <v>37566</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(105, 5, 2, 'acct 2', '2002-11-06');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="7"/>
+        <v>37576</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(106, 6, 2, 'acct 2', '2002-11-16');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="7"/>
+        <v>37586</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(107, 7, 2, 'acct 2', '2002-11-26');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="7"/>
+        <v>37596</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(108, 8, 2, 'acct 2', '2002-12-06');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="7"/>
+        <v>37606</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(109, 9, 2, 'acct 2', '2002-12-16');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="7"/>
+        <v>37616</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(110, 10, 2, 'acct 2', '2002-12-26');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="7"/>
+        <v>37626</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(111, 11, 2, 'acct 2', '2003-01-05');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="7"/>
+        <v>37636</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(112, 12, 2, 'acct 2', '2003-01-15');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="7"/>
+        <v>37646</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(113, 13, 2, 'acct 2', '2003-01-25');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="7"/>
+        <v>37656</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(114, 14, 2, 'acct 2', '2003-02-04');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="7"/>
+        <v>37666</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(115, 15, 2, 'acct 2', '2003-02-14');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="7"/>
+        <v>37676</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(116, 16, 2, 'acct 2', '2003-02-24');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="7"/>
+        <v>37686</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(117, 17, 2, 'acct 2', '2003-03-06');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>18</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="7"/>
+        <v>37696</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(118, 18, 2, 'acct 2', '2003-03-16');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>19</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="7"/>
+        <v>37706</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(119, 19, 2, 'acct 2', '2003-03-26');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="7"/>
+        <v>37716</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(120, 20, 2, 'acct 2', '2003-04-05');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>21</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="7"/>
+        <v>37726</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(121, 21, 2, 'acct 2', '2003-04-15');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>22</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="7"/>
+        <v>37736</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(122, 22, 2, 'acct 2', '2003-04-25');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="7"/>
+        <v>37746</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(123, 23, 2, 'acct 2', '2003-05-05');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="7"/>
+        <v>37756</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(124, 24, 2, 'acct 2', '2003-05-15');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="7"/>
+        <v>37766</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(125, 25, 2, 'acct 2', '2003-05-25');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>26</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="7"/>
+        <v>37776</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(126, 26, 2, 'acct 2', '2003-06-04');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>27</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="7"/>
+        <v>37786</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(127, 27, 2, 'acct 2', '2003-06-14');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>28</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="7"/>
+        <v>37796</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(128, 28, 2, 'acct 2', '2003-06-24');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>29</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="4"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="7"/>
+        <v>37806</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into account values(129, 29, 2, 'acct 2', '2003-07-04');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="8">CONCATENATE("acct ", C130)</f>
+        <v>acct 2</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="7"/>
+        <v>37816</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" ref="G130:G193" si="9">CONCATENATE("insert into account values(", A130, ", ", B130, ", ", C130, ", '", D130, "', '", TEXT(E130, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(130, 30, 2, 'acct 2', '2003-07-14');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="10">A130+1</f>
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>31</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" ref="E131:E194" si="11">E130+10</f>
+        <v>37826</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(131, 31, 2, 'acct 2', '2003-07-24');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>32</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="11"/>
+        <v>37836</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(132, 32, 2, 'acct 2', '2003-08-03');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>33</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="11"/>
+        <v>37846</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(133, 33, 2, 'acct 2', '2003-08-13');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>34</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="11"/>
+        <v>37856</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(134, 34, 2, 'acct 2', '2003-08-23');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>35</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="11"/>
+        <v>37866</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(135, 35, 2, 'acct 2', '2003-09-02');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="11"/>
+        <v>37876</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(136, 36, 2, 'acct 2', '2003-09-12');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>37</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="11"/>
+        <v>37886</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(137, 37, 2, 'acct 2', '2003-09-22');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>38</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="11"/>
+        <v>37896</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(138, 38, 2, 'acct 2', '2003-10-02');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="10"/>
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>39</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="11"/>
+        <v>37906</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(139, 39, 2, 'acct 2', '2003-10-12');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>40</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="11"/>
+        <v>37916</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(140, 40, 2, 'acct 2', '2003-10-22');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>41</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="11"/>
+        <v>37926</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(141, 41, 2, 'acct 2', '2003-11-01');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>42</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="11"/>
+        <v>37936</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(142, 42, 2, 'acct 2', '2003-11-11');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>43</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="11"/>
+        <v>37946</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(143, 43, 2, 'acct 2', '2003-11-21');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>44</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="11"/>
+        <v>37956</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(144, 44, 2, 'acct 2', '2003-12-01');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>45</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="11"/>
+        <v>37966</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(145, 45, 2, 'acct 2', '2003-12-11');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>46</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="11"/>
+        <v>37976</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(146, 46, 2, 'acct 2', '2003-12-21');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>47</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="11"/>
+        <v>37986</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(147, 47, 2, 'acct 2', '2003-12-31');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="11"/>
+        <v>37996</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(148, 48, 2, 'acct 2', '2004-01-10');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>49</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="11"/>
+        <v>38006</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(149, 49, 2, 'acct 2', '2004-01-20');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="11"/>
+        <v>38016</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(150, 50, 2, 'acct 2', '2004-01-30');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>51</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="11"/>
+        <v>38026</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(151, 51, 2, 'acct 2', '2004-02-09');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>52</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="11"/>
+        <v>38036</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(152, 52, 2, 'acct 2', '2004-02-19');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>53</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="11"/>
+        <v>38046</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(153, 53, 2, 'acct 2', '2004-02-29');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>54</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="11"/>
+        <v>38056</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(154, 54, 2, 'acct 2', '2004-03-10');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>55</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="11"/>
+        <v>38066</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(155, 55, 2, 'acct 2', '2004-03-20');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>56</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="11"/>
+        <v>38076</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(156, 56, 2, 'acct 2', '2004-03-30');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>57</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="11"/>
+        <v>38086</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(157, 57, 2, 'acct 2', '2004-04-09');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>58</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="11"/>
+        <v>38096</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(158, 58, 2, 'acct 2', '2004-04-19');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>59</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="11"/>
+        <v>38106</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(159, 59, 2, 'acct 2', '2004-04-29');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>60</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="11"/>
+        <v>38116</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(160, 60, 2, 'acct 2', '2004-05-09');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>61</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="11"/>
+        <v>38126</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(161, 61, 2, 'acct 2', '2004-05-19');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>62</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="11"/>
+        <v>38136</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(162, 62, 2, 'acct 2', '2004-05-29');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="10"/>
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>63</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="11"/>
+        <v>38146</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(163, 63, 2, 'acct 2', '2004-06-08');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>64</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="11"/>
+        <v>38156</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(164, 64, 2, 'acct 2', '2004-06-18');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="10"/>
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>65</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="11"/>
+        <v>38166</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(165, 65, 2, 'acct 2', '2004-06-28');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>66</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="11"/>
+        <v>38176</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(166, 66, 2, 'acct 2', '2004-07-08');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>67</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="11"/>
+        <v>38186</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(167, 67, 2, 'acct 2', '2004-07-18');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>68</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="11"/>
+        <v>38196</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(168, 68, 2, 'acct 2', '2004-07-28');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>69</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="11"/>
+        <v>38206</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(169, 69, 2, 'acct 2', '2004-08-07');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>70</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="11"/>
+        <v>38216</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(170, 70, 2, 'acct 2', '2004-08-17');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>71</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="11"/>
+        <v>38226</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(171, 71, 2, 'acct 2', '2004-08-27');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>72</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="11"/>
+        <v>38236</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(172, 72, 2, 'acct 2', '2004-09-06');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>73</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="11"/>
+        <v>38246</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(173, 73, 2, 'acct 2', '2004-09-16');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>74</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="11"/>
+        <v>38256</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(174, 74, 2, 'acct 2', '2004-09-26');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>75</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="11"/>
+        <v>38266</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(175, 75, 2, 'acct 2', '2004-10-06');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>76</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E176" s="2">
+        <f t="shared" si="11"/>
+        <v>38276</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(176, 76, 2, 'acct 2', '2004-10-16');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>77</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E177" s="2">
+        <f t="shared" si="11"/>
+        <v>38286</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(177, 77, 2, 'acct 2', '2004-10-26');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>78</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="11"/>
+        <v>38296</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(178, 78, 2, 'acct 2', '2004-11-05');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>79</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="11"/>
+        <v>38306</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(179, 79, 2, 'acct 2', '2004-11-15');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>80</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E180" s="2">
+        <f t="shared" si="11"/>
+        <v>38316</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(180, 80, 2, 'acct 2', '2004-11-25');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>81</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E181" s="2">
+        <f t="shared" si="11"/>
+        <v>38326</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(181, 81, 2, 'acct 2', '2004-12-05');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>82</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" si="11"/>
+        <v>38336</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(182, 82, 2, 'acct 2', '2004-12-15');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="10"/>
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>83</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="11"/>
+        <v>38346</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(183, 83, 2, 'acct 2', '2004-12-25');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>84</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E184" s="2">
+        <f t="shared" si="11"/>
+        <v>38356</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(184, 84, 2, 'acct 2', '2005-01-04');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>85</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E185" s="2">
+        <f t="shared" si="11"/>
+        <v>38366</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(185, 85, 2, 'acct 2', '2005-01-14');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>86</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E186" s="2">
+        <f t="shared" si="11"/>
+        <v>38376</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(186, 86, 2, 'acct 2', '2005-01-24');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>87</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E187" s="2">
+        <f t="shared" si="11"/>
+        <v>38386</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(187, 87, 2, 'acct 2', '2005-02-03');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>88</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E188" s="2">
+        <f t="shared" si="11"/>
+        <v>38396</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(188, 88, 2, 'acct 2', '2005-02-13');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>89</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E189" s="2">
+        <f t="shared" si="11"/>
+        <v>38406</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(189, 89, 2, 'acct 2', '2005-02-23');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>90</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="11"/>
+        <v>38416</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(190, 90, 2, 'acct 2', '2005-03-05');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>91</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="11"/>
+        <v>38426</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(191, 91, 2, 'acct 2', '2005-03-15');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>92</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" si="11"/>
+        <v>38436</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(192, 92, 2, 'acct 2', '2005-03-25');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>93</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="8"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="11"/>
+        <v>38446</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into account values(193, 93, 2, 'acct 2', '2005-04-04');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>94</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D257" si="12">CONCATENATE("acct ", C194)</f>
+        <v>acct 2</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="11"/>
+        <v>38456</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" ref="G194:G257" si="13">CONCATENATE("insert into account values(", A194, ", ", B194, ", ", C194, ", '", D194, "', '", TEXT(E194, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(194, 94, 2, 'acct 2', '2005-04-14');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="14">A194+1</f>
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>95</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" ref="E195:E258" si="15">E194+10</f>
+        <v>38466</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(195, 95, 2, 'acct 2', '2005-04-24');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>96</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" si="15"/>
+        <v>38476</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(196, 96, 2, 'acct 2', '2005-05-04');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>97</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="15"/>
+        <v>38486</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(197, 97, 2, 'acct 2', '2005-05-14');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>98</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E198" s="2">
+        <f t="shared" si="15"/>
+        <v>38496</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(198, 98, 2, 'acct 2', '2005-05-24');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>99</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E199" s="2">
+        <f t="shared" si="15"/>
+        <v>38506</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(199, 99, 2, 'acct 2', '2005-06-03');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>100</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 2</v>
+      </c>
+      <c r="E200" s="2">
+        <f t="shared" si="15"/>
+        <v>38516</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(200, 100, 2, 'acct 2', '2005-06-13');</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="15"/>
+        <v>38526</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(201, 1, 3, 'acct 3', '2005-06-23');</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E202" s="2">
+        <f t="shared" si="15"/>
+        <v>38536</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(202, 2, 3, 'acct 3', '2005-07-03');</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E203" s="2">
+        <f t="shared" si="15"/>
+        <v>38546</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(203, 3, 3, 'acct 3', '2005-07-13');</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E204" s="2">
+        <f t="shared" si="15"/>
+        <v>38556</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(204, 4, 3, 'acct 3', '2005-07-23');</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="15"/>
+        <v>38566</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(205, 5, 3, 'acct 3', '2005-08-02');</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E206" s="2">
+        <f t="shared" si="15"/>
+        <v>38576</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(206, 6, 3, 'acct 3', '2005-08-12');</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="15"/>
+        <v>38586</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(207, 7, 3, 'acct 3', '2005-08-22');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E208" s="2">
+        <f t="shared" si="15"/>
+        <v>38596</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(208, 8, 3, 'acct 3', '2005-09-01');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E209" s="2">
+        <f t="shared" si="15"/>
+        <v>38606</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(209, 9, 3, 'acct 3', '2005-09-11');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E210" s="2">
+        <f t="shared" si="15"/>
+        <v>38616</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(210, 10, 3, 'acct 3', '2005-09-21');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E211" s="2">
+        <f t="shared" si="15"/>
+        <v>38626</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(211, 11, 3, 'acct 3', '2005-10-01');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>12</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E212" s="2">
+        <f t="shared" si="15"/>
+        <v>38636</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(212, 12, 3, 'acct 3', '2005-10-11');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E213" s="2">
+        <f t="shared" si="15"/>
+        <v>38646</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(213, 13, 3, 'acct 3', '2005-10-21');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="14"/>
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>14</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E214" s="2">
+        <f t="shared" si="15"/>
+        <v>38656</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(214, 14, 3, 'acct 3', '2005-10-31');</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>15</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E215" s="2">
+        <f t="shared" si="15"/>
+        <v>38666</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(215, 15, 3, 'acct 3', '2005-11-10');</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E216" s="2">
+        <f t="shared" si="15"/>
+        <v>38676</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(216, 16, 3, 'acct 3', '2005-11-20');</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E217" s="2">
+        <f t="shared" si="15"/>
+        <v>38686</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(217, 17, 3, 'acct 3', '2005-11-30');</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>18</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E218" s="2">
+        <f t="shared" si="15"/>
+        <v>38696</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(218, 18, 3, 'acct 3', '2005-12-10');</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E219" s="2">
+        <f t="shared" si="15"/>
+        <v>38706</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(219, 19, 3, 'acct 3', '2005-12-20');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E220" s="2">
+        <f t="shared" si="15"/>
+        <v>38716</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(220, 20, 3, 'acct 3', '2005-12-30');</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="14"/>
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>21</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E221" s="2">
+        <f t="shared" si="15"/>
+        <v>38726</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(221, 21, 3, 'acct 3', '2006-01-09');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="14"/>
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>22</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" si="15"/>
+        <v>38736</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(222, 22, 3, 'acct 3', '2006-01-19');</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>23</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E223" s="2">
+        <f t="shared" si="15"/>
+        <v>38746</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(223, 23, 3, 'acct 3', '2006-01-29');</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>24</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E224" s="2">
+        <f t="shared" si="15"/>
+        <v>38756</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(224, 24, 3, 'acct 3', '2006-02-08');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E225" s="2">
+        <f t="shared" si="15"/>
+        <v>38766</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(225, 25, 3, 'acct 3', '2006-02-18');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="14"/>
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>26</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E226" s="2">
+        <f t="shared" si="15"/>
+        <v>38776</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(226, 26, 3, 'acct 3', '2006-02-28');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="14"/>
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>27</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E227" s="2">
+        <f t="shared" si="15"/>
+        <v>38786</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(227, 27, 3, 'acct 3', '2006-03-10');</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E228" s="2">
+        <f t="shared" si="15"/>
+        <v>38796</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(228, 28, 3, 'acct 3', '2006-03-20');</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="14"/>
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>29</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E229" s="2">
+        <f t="shared" si="15"/>
+        <v>38806</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(229, 29, 3, 'acct 3', '2006-03-30');</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>30</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E230" s="2">
+        <f t="shared" si="15"/>
+        <v>38816</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(230, 30, 3, 'acct 3', '2006-04-09');</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>31</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E231" s="2">
+        <f t="shared" si="15"/>
+        <v>38826</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(231, 31, 3, 'acct 3', '2006-04-19');</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>32</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E232" s="2">
+        <f t="shared" si="15"/>
+        <v>38836</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(232, 32, 3, 'acct 3', '2006-04-29');</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="14"/>
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E233" s="2">
+        <f t="shared" si="15"/>
+        <v>38846</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(233, 33, 3, 'acct 3', '2006-05-09');</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="14"/>
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>34</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E234" s="2">
+        <f t="shared" si="15"/>
+        <v>38856</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(234, 34, 3, 'acct 3', '2006-05-19');</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>35</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E235" s="2">
+        <f t="shared" si="15"/>
+        <v>38866</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(235, 35, 3, 'acct 3', '2006-05-29');</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="14"/>
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>36</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E236" s="2">
+        <f t="shared" si="15"/>
+        <v>38876</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(236, 36, 3, 'acct 3', '2006-06-08');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="14"/>
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>37</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E237" s="2">
+        <f t="shared" si="15"/>
+        <v>38886</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(237, 37, 3, 'acct 3', '2006-06-18');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>38</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E238" s="2">
+        <f t="shared" si="15"/>
+        <v>38896</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(238, 38, 3, 'acct 3', '2006-06-28');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="14"/>
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>39</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E239" s="2">
+        <f t="shared" si="15"/>
+        <v>38906</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(239, 39, 3, 'acct 3', '2006-07-08');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>40</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E240" s="2">
+        <f t="shared" si="15"/>
+        <v>38916</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(240, 40, 3, 'acct 3', '2006-07-18');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="14"/>
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>41</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E241" s="2">
+        <f t="shared" si="15"/>
+        <v>38926</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(241, 41, 3, 'acct 3', '2006-07-28');</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="14"/>
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>42</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E242" s="2">
+        <f t="shared" si="15"/>
+        <v>38936</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(242, 42, 3, 'acct 3', '2006-08-07');</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="14"/>
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>43</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E243" s="2">
+        <f t="shared" si="15"/>
+        <v>38946</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(243, 43, 3, 'acct 3', '2006-08-17');</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="14"/>
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E244" s="2">
+        <f t="shared" si="15"/>
+        <v>38956</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(244, 44, 3, 'acct 3', '2006-08-27');</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="14"/>
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>45</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E245" s="2">
+        <f t="shared" si="15"/>
+        <v>38966</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(245, 45, 3, 'acct 3', '2006-09-06');</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="14"/>
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>46</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E246" s="2">
+        <f t="shared" si="15"/>
+        <v>38976</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(246, 46, 3, 'acct 3', '2006-09-16');</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="14"/>
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>47</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E247" s="2">
+        <f t="shared" si="15"/>
+        <v>38986</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(247, 47, 3, 'acct 3', '2006-09-26');</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="14"/>
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>48</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E248" s="2">
+        <f t="shared" si="15"/>
+        <v>38996</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(248, 48, 3, 'acct 3', '2006-10-06');</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="14"/>
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>49</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E249" s="2">
+        <f t="shared" si="15"/>
+        <v>39006</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(249, 49, 3, 'acct 3', '2006-10-16');</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E250" s="2">
+        <f t="shared" si="15"/>
+        <v>39016</v>
+      </c>
+      <c r="G250" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(250, 50, 3, 'acct 3', '2006-10-26');</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>51</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E251" s="2">
+        <f t="shared" si="15"/>
+        <v>39026</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(251, 51, 3, 'acct 3', '2006-11-05');</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="14"/>
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>52</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E252" s="2">
+        <f t="shared" si="15"/>
+        <v>39036</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(252, 52, 3, 'acct 3', '2006-11-15');</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="14"/>
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>53</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E253" s="2">
+        <f t="shared" si="15"/>
+        <v>39046</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(253, 53, 3, 'acct 3', '2006-11-25');</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>54</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" si="15"/>
+        <v>39056</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(254, 54, 3, 'acct 3', '2006-12-05');</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>55</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E255" s="2">
+        <f t="shared" si="15"/>
+        <v>39066</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(255, 55, 3, 'acct 3', '2006-12-15');</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>56</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E256" s="2">
+        <f t="shared" si="15"/>
+        <v>39076</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(256, 56, 3, 'acct 3', '2006-12-25');</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="14"/>
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>57</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="12"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E257" s="2">
+        <f t="shared" si="15"/>
+        <v>39086</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into account values(257, 57, 3, 'acct 3', '2007-01-04');</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="14"/>
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>58</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" ref="D258:D321" si="16">CONCATENATE("acct ", C258)</f>
+        <v>acct 3</v>
+      </c>
+      <c r="E258" s="2">
+        <f t="shared" si="15"/>
+        <v>39096</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" ref="G258:G321" si="17">CONCATENATE("insert into account values(", A258, ", ", B258, ", ", C258, ", '", D258, "', '", TEXT(E258, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(258, 58, 3, 'acct 3', '2007-01-14');</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" ref="A259:A322" si="18">A258+1</f>
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>59</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" ref="E259:E322" si="19">E258+10</f>
+        <v>39106</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(259, 59, 3, 'acct 3', '2007-01-24');</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="18"/>
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>60</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="19"/>
+        <v>39116</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(260, 60, 3, 'acct 3', '2007-02-03');</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="18"/>
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>61</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="19"/>
+        <v>39126</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(261, 61, 3, 'acct 3', '2007-02-13');</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="18"/>
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>62</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E262" s="2">
+        <f t="shared" si="19"/>
+        <v>39136</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(262, 62, 3, 'acct 3', '2007-02-23');</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="18"/>
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>63</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="19"/>
+        <v>39146</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(263, 63, 3, 'acct 3', '2007-03-05');</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="18"/>
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>64</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" si="19"/>
+        <v>39156</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(264, 64, 3, 'acct 3', '2007-03-15');</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="18"/>
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>65</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="19"/>
+        <v>39166</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(265, 65, 3, 'acct 3', '2007-03-25');</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>66</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="19"/>
+        <v>39176</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(266, 66, 3, 'acct 3', '2007-04-04');</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="18"/>
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>67</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="19"/>
+        <v>39186</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(267, 67, 3, 'acct 3', '2007-04-14');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="18"/>
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>68</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" si="19"/>
+        <v>39196</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(268, 68, 3, 'acct 3', '2007-04-24');</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="18"/>
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>69</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" si="19"/>
+        <v>39206</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(269, 69, 3, 'acct 3', '2007-05-04');</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="18"/>
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>70</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E270" s="2">
+        <f t="shared" si="19"/>
+        <v>39216</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(270, 70, 3, 'acct 3', '2007-05-14');</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="18"/>
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>71</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E271" s="2">
+        <f t="shared" si="19"/>
+        <v>39226</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(271, 71, 3, 'acct 3', '2007-05-24');</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="18"/>
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>72</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E272" s="2">
+        <f t="shared" si="19"/>
+        <v>39236</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(272, 72, 3, 'acct 3', '2007-06-03');</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="18"/>
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>73</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E273" s="2">
+        <f t="shared" si="19"/>
+        <v>39246</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(273, 73, 3, 'acct 3', '2007-06-13');</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="18"/>
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>74</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E274" s="2">
+        <f t="shared" si="19"/>
+        <v>39256</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(274, 74, 3, 'acct 3', '2007-06-23');</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="18"/>
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>75</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E275" s="2">
+        <f t="shared" si="19"/>
+        <v>39266</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(275, 75, 3, 'acct 3', '2007-07-03');</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="18"/>
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>76</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E276" s="2">
+        <f t="shared" si="19"/>
+        <v>39276</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(276, 76, 3, 'acct 3', '2007-07-13');</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="18"/>
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>77</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E277" s="2">
+        <f t="shared" si="19"/>
+        <v>39286</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(277, 77, 3, 'acct 3', '2007-07-23');</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="18"/>
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>78</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E278" s="2">
+        <f t="shared" si="19"/>
+        <v>39296</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(278, 78, 3, 'acct 3', '2007-08-02');</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="18"/>
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>79</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E279" s="2">
+        <f t="shared" si="19"/>
+        <v>39306</v>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(279, 79, 3, 'acct 3', '2007-08-12');</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="18"/>
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>80</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E280" s="2">
+        <f t="shared" si="19"/>
+        <v>39316</v>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(280, 80, 3, 'acct 3', '2007-08-22');</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="18"/>
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>81</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E281" s="2">
+        <f t="shared" si="19"/>
+        <v>39326</v>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(281, 81, 3, 'acct 3', '2007-09-01');</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="18"/>
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>82</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" si="19"/>
+        <v>39336</v>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(282, 82, 3, 'acct 3', '2007-09-11');</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="18"/>
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>83</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E283" s="2">
+        <f t="shared" si="19"/>
+        <v>39346</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(283, 83, 3, 'acct 3', '2007-09-21');</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="18"/>
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>84</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E284" s="2">
+        <f t="shared" si="19"/>
+        <v>39356</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(284, 84, 3, 'acct 3', '2007-10-01');</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="18"/>
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>85</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E285" s="2">
+        <f t="shared" si="19"/>
+        <v>39366</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(285, 85, 3, 'acct 3', '2007-10-11');</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="18"/>
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>86</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" si="19"/>
+        <v>39376</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(286, 86, 3, 'acct 3', '2007-10-21');</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="18"/>
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>87</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E287" s="2">
+        <f t="shared" si="19"/>
+        <v>39386</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(287, 87, 3, 'acct 3', '2007-10-31');</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="18"/>
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>88</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E288" s="2">
+        <f t="shared" si="19"/>
+        <v>39396</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(288, 88, 3, 'acct 3', '2007-11-10');</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="18"/>
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>89</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E289" s="2">
+        <f t="shared" si="19"/>
+        <v>39406</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(289, 89, 3, 'acct 3', '2007-11-20');</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="18"/>
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>90</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E290" s="2">
+        <f t="shared" si="19"/>
+        <v>39416</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(290, 90, 3, 'acct 3', '2007-11-30');</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="18"/>
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>91</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E291" s="2">
+        <f t="shared" si="19"/>
+        <v>39426</v>
+      </c>
+      <c r="G291" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(291, 91, 3, 'acct 3', '2007-12-10');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="18"/>
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>92</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E292" s="2">
+        <f t="shared" si="19"/>
+        <v>39436</v>
+      </c>
+      <c r="G292" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(292, 92, 3, 'acct 3', '2007-12-20');</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" si="18"/>
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>93</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E293" s="2">
+        <f t="shared" si="19"/>
+        <v>39446</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(293, 93, 3, 'acct 3', '2007-12-30');</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="18"/>
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>94</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E294" s="2">
+        <f t="shared" si="19"/>
+        <v>39456</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(294, 94, 3, 'acct 3', '2008-01-09');</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="18"/>
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>95</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E295" s="2">
+        <f t="shared" si="19"/>
+        <v>39466</v>
+      </c>
+      <c r="G295" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(295, 95, 3, 'acct 3', '2008-01-19');</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" si="18"/>
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>96</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E296" s="2">
+        <f t="shared" si="19"/>
+        <v>39476</v>
+      </c>
+      <c r="G296" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(296, 96, 3, 'acct 3', '2008-01-29');</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" si="18"/>
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>97</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E297" s="2">
+        <f t="shared" si="19"/>
+        <v>39486</v>
+      </c>
+      <c r="G297" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(297, 97, 3, 'acct 3', '2008-02-08');</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="18"/>
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>98</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E298" s="2">
+        <f t="shared" si="19"/>
+        <v>39496</v>
+      </c>
+      <c r="G298" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(298, 98, 3, 'acct 3', '2008-02-18');</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="18"/>
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>99</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E299" s="2">
+        <f t="shared" si="19"/>
+        <v>39506</v>
+      </c>
+      <c r="G299" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(299, 99, 3, 'acct 3', '2008-02-28');</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" si="18"/>
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>100</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 3</v>
+      </c>
+      <c r="E300" s="2">
+        <f t="shared" si="19"/>
+        <v>39516</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(300, 100, 3, 'acct 3', '2008-03-09');</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" si="18"/>
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E301" s="2">
+        <f t="shared" si="19"/>
+        <v>39526</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(301, 1, 4, 'acct 4', '2008-03-19');</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" si="18"/>
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E302" s="2">
+        <f t="shared" si="19"/>
+        <v>39536</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(302, 2, 4, 'acct 4', '2008-03-29');</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" si="18"/>
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E303" s="2">
+        <f t="shared" si="19"/>
+        <v>39546</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(303, 3, 4, 'acct 4', '2008-04-08');</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E304" s="2">
+        <f t="shared" si="19"/>
+        <v>39556</v>
+      </c>
+      <c r="G304" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(304, 4, 4, 'acct 4', '2008-04-18');</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" si="18"/>
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E305" s="2">
+        <f t="shared" si="19"/>
+        <v>39566</v>
+      </c>
+      <c r="G305" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(305, 5, 4, 'acct 4', '2008-04-28');</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" si="18"/>
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>6</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E306" s="2">
+        <f t="shared" si="19"/>
+        <v>39576</v>
+      </c>
+      <c r="G306" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(306, 6, 4, 'acct 4', '2008-05-08');</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" si="18"/>
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E307" s="2">
+        <f t="shared" si="19"/>
+        <v>39586</v>
+      </c>
+      <c r="G307" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(307, 7, 4, 'acct 4', '2008-05-18');</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" si="18"/>
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>8</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E308" s="2">
+        <f t="shared" si="19"/>
+        <v>39596</v>
+      </c>
+      <c r="G308" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(308, 8, 4, 'acct 4', '2008-05-28');</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" si="18"/>
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>9</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E309" s="2">
+        <f t="shared" si="19"/>
+        <v>39606</v>
+      </c>
+      <c r="G309" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(309, 9, 4, 'acct 4', '2008-06-07');</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" si="18"/>
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>10</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E310" s="2">
+        <f t="shared" si="19"/>
+        <v>39616</v>
+      </c>
+      <c r="G310" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(310, 10, 4, 'acct 4', '2008-06-17');</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" si="18"/>
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>11</v>
+      </c>
+      <c r="C311">
+        <v>4</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E311" s="2">
+        <f t="shared" si="19"/>
+        <v>39626</v>
+      </c>
+      <c r="G311" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(311, 11, 4, 'acct 4', '2008-06-27');</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <f t="shared" si="18"/>
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>12</v>
+      </c>
+      <c r="C312">
+        <v>4</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E312" s="2">
+        <f t="shared" si="19"/>
+        <v>39636</v>
+      </c>
+      <c r="G312" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(312, 12, 4, 'acct 4', '2008-07-07');</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <f t="shared" si="18"/>
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>13</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E313" s="2">
+        <f t="shared" si="19"/>
+        <v>39646</v>
+      </c>
+      <c r="G313" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(313, 13, 4, 'acct 4', '2008-07-17');</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <f t="shared" si="18"/>
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>14</v>
+      </c>
+      <c r="C314">
+        <v>4</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E314" s="2">
+        <f t="shared" si="19"/>
+        <v>39656</v>
+      </c>
+      <c r="G314" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(314, 14, 4, 'acct 4', '2008-07-27');</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f t="shared" si="18"/>
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>15</v>
+      </c>
+      <c r="C315">
+        <v>4</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E315" s="2">
+        <f t="shared" si="19"/>
+        <v>39666</v>
+      </c>
+      <c r="G315" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(315, 15, 4, 'acct 4', '2008-08-06');</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" si="18"/>
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>16</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E316" s="2">
+        <f t="shared" si="19"/>
+        <v>39676</v>
+      </c>
+      <c r="G316" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(316, 16, 4, 'acct 4', '2008-08-16');</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="18"/>
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>17</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E317" s="2">
+        <f t="shared" si="19"/>
+        <v>39686</v>
+      </c>
+      <c r="G317" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(317, 17, 4, 'acct 4', '2008-08-26');</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="18"/>
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>18</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E318" s="2">
+        <f t="shared" si="19"/>
+        <v>39696</v>
+      </c>
+      <c r="G318" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(318, 18, 4, 'acct 4', '2008-09-05');</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="18"/>
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>19</v>
+      </c>
+      <c r="C319">
+        <v>4</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E319" s="2">
+        <f t="shared" si="19"/>
+        <v>39706</v>
+      </c>
+      <c r="G319" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(319, 19, 4, 'acct 4', '2008-09-15');</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="18"/>
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>20</v>
+      </c>
+      <c r="C320">
+        <v>4</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E320" s="2">
+        <f t="shared" si="19"/>
+        <v>39716</v>
+      </c>
+      <c r="G320" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(320, 20, 4, 'acct 4', '2008-09-25');</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="18"/>
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>21</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="16"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E321" s="2">
+        <f t="shared" si="19"/>
+        <v>39726</v>
+      </c>
+      <c r="G321" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into account values(321, 21, 4, 'acct 4', '2008-10-05');</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="18"/>
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>22</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" ref="D322:D385" si="20">CONCATENATE("acct ", C322)</f>
+        <v>acct 4</v>
+      </c>
+      <c r="E322" s="2">
+        <f t="shared" si="19"/>
+        <v>39736</v>
+      </c>
+      <c r="G322" t="str">
+        <f t="shared" ref="G322:G385" si="21">CONCATENATE("insert into account values(", A322, ", ", B322, ", ", C322, ", '", D322, "', '", TEXT(E322, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(322, 22, 4, 'acct 4', '2008-10-15');</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" ref="A323:A386" si="22">A322+1</f>
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>23</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E323" s="2">
+        <f t="shared" ref="E323:E386" si="23">E322+10</f>
+        <v>39746</v>
+      </c>
+      <c r="G323" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(323, 23, 4, 'acct 4', '2008-10-25');</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="22"/>
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>24</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E324" s="2">
+        <f t="shared" si="23"/>
+        <v>39756</v>
+      </c>
+      <c r="G324" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(324, 24, 4, 'acct 4', '2008-11-04');</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="22"/>
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>25</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E325" s="2">
+        <f t="shared" si="23"/>
+        <v>39766</v>
+      </c>
+      <c r="G325" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(325, 25, 4, 'acct 4', '2008-11-14');</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="22"/>
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E326" s="2">
+        <f t="shared" si="23"/>
+        <v>39776</v>
+      </c>
+      <c r="G326" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(326, 26, 4, 'acct 4', '2008-11-24');</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="22"/>
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>27</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E327" s="2">
+        <f t="shared" si="23"/>
+        <v>39786</v>
+      </c>
+      <c r="G327" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(327, 27, 4, 'acct 4', '2008-12-04');</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="22"/>
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>28</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E328" s="2">
+        <f t="shared" si="23"/>
+        <v>39796</v>
+      </c>
+      <c r="G328" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(328, 28, 4, 'acct 4', '2008-12-14');</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="22"/>
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>29</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E329" s="2">
+        <f t="shared" si="23"/>
+        <v>39806</v>
+      </c>
+      <c r="G329" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(329, 29, 4, 'acct 4', '2008-12-24');</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="22"/>
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>30</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E330" s="2">
+        <f t="shared" si="23"/>
+        <v>39816</v>
+      </c>
+      <c r="G330" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(330, 30, 4, 'acct 4', '2009-01-03');</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="22"/>
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>31</v>
+      </c>
+      <c r="C331">
+        <v>4</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E331" s="2">
+        <f t="shared" si="23"/>
+        <v>39826</v>
+      </c>
+      <c r="G331" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(331, 31, 4, 'acct 4', '2009-01-13');</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="22"/>
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>32</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E332" s="2">
+        <f t="shared" si="23"/>
+        <v>39836</v>
+      </c>
+      <c r="G332" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(332, 32, 4, 'acct 4', '2009-01-23');</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="22"/>
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>33</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E333" s="2">
+        <f t="shared" si="23"/>
+        <v>39846</v>
+      </c>
+      <c r="G333" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(333, 33, 4, 'acct 4', '2009-02-02');</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="22"/>
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>34</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E334" s="2">
+        <f t="shared" si="23"/>
+        <v>39856</v>
+      </c>
+      <c r="G334" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(334, 34, 4, 'acct 4', '2009-02-12');</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="22"/>
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>35</v>
+      </c>
+      <c r="C335">
+        <v>4</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E335" s="2">
+        <f t="shared" si="23"/>
+        <v>39866</v>
+      </c>
+      <c r="G335" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(335, 35, 4, 'acct 4', '2009-02-22');</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="22"/>
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>36</v>
+      </c>
+      <c r="C336">
+        <v>4</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E336" s="2">
+        <f t="shared" si="23"/>
+        <v>39876</v>
+      </c>
+      <c r="G336" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(336, 36, 4, 'acct 4', '2009-03-04');</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="22"/>
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>37</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E337" s="2">
+        <f t="shared" si="23"/>
+        <v>39886</v>
+      </c>
+      <c r="G337" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(337, 37, 4, 'acct 4', '2009-03-14');</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="22"/>
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>38</v>
+      </c>
+      <c r="C338">
+        <v>4</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E338" s="2">
+        <f t="shared" si="23"/>
+        <v>39896</v>
+      </c>
+      <c r="G338" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(338, 38, 4, 'acct 4', '2009-03-24');</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="22"/>
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>39</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E339" s="2">
+        <f t="shared" si="23"/>
+        <v>39906</v>
+      </c>
+      <c r="G339" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(339, 39, 4, 'acct 4', '2009-04-03');</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="22"/>
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>40</v>
+      </c>
+      <c r="C340">
+        <v>4</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E340" s="2">
+        <f t="shared" si="23"/>
+        <v>39916</v>
+      </c>
+      <c r="G340" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(340, 40, 4, 'acct 4', '2009-04-13');</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="22"/>
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>41</v>
+      </c>
+      <c r="C341">
+        <v>4</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E341" s="2">
+        <f t="shared" si="23"/>
+        <v>39926</v>
+      </c>
+      <c r="G341" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(341, 41, 4, 'acct 4', '2009-04-23');</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="22"/>
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>42</v>
+      </c>
+      <c r="C342">
+        <v>4</v>
+      </c>
+      <c r="D342" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E342" s="2">
+        <f t="shared" si="23"/>
+        <v>39936</v>
+      </c>
+      <c r="G342" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(342, 42, 4, 'acct 4', '2009-05-03');</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="22"/>
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>43</v>
+      </c>
+      <c r="C343">
+        <v>4</v>
+      </c>
+      <c r="D343" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E343" s="2">
+        <f t="shared" si="23"/>
+        <v>39946</v>
+      </c>
+      <c r="G343" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(343, 43, 4, 'acct 4', '2009-05-13');</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="22"/>
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>44</v>
+      </c>
+      <c r="C344">
+        <v>4</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E344" s="2">
+        <f t="shared" si="23"/>
+        <v>39956</v>
+      </c>
+      <c r="G344" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(344, 44, 4, 'acct 4', '2009-05-23');</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="22"/>
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>45</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E345" s="2">
+        <f t="shared" si="23"/>
+        <v>39966</v>
+      </c>
+      <c r="G345" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(345, 45, 4, 'acct 4', '2009-06-02');</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="22"/>
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>46</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E346" s="2">
+        <f t="shared" si="23"/>
+        <v>39976</v>
+      </c>
+      <c r="G346" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(346, 46, 4, 'acct 4', '2009-06-12');</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="22"/>
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>47</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E347" s="2">
+        <f t="shared" si="23"/>
+        <v>39986</v>
+      </c>
+      <c r="G347" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(347, 47, 4, 'acct 4', '2009-06-22');</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="22"/>
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>48</v>
+      </c>
+      <c r="C348">
+        <v>4</v>
+      </c>
+      <c r="D348" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E348" s="2">
+        <f t="shared" si="23"/>
+        <v>39996</v>
+      </c>
+      <c r="G348" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(348, 48, 4, 'acct 4', '2009-07-02');</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="22"/>
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>49</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E349" s="2">
+        <f t="shared" si="23"/>
+        <v>40006</v>
+      </c>
+      <c r="G349" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(349, 49, 4, 'acct 4', '2009-07-12');</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="22"/>
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>50</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
+      </c>
+      <c r="D350" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E350" s="2">
+        <f t="shared" si="23"/>
+        <v>40016</v>
+      </c>
+      <c r="G350" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(350, 50, 4, 'acct 4', '2009-07-22');</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="22"/>
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>51</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E351" s="2">
+        <f t="shared" si="23"/>
+        <v>40026</v>
+      </c>
+      <c r="G351" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(351, 51, 4, 'acct 4', '2009-08-01');</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="22"/>
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>52</v>
+      </c>
+      <c r="C352">
+        <v>4</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E352" s="2">
+        <f t="shared" si="23"/>
+        <v>40036</v>
+      </c>
+      <c r="G352" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(352, 52, 4, 'acct 4', '2009-08-11');</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="22"/>
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>53</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E353" s="2">
+        <f t="shared" si="23"/>
+        <v>40046</v>
+      </c>
+      <c r="G353" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(353, 53, 4, 'acct 4', '2009-08-21');</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="22"/>
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>54</v>
+      </c>
+      <c r="C354">
+        <v>4</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E354" s="2">
+        <f t="shared" si="23"/>
+        <v>40056</v>
+      </c>
+      <c r="G354" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(354, 54, 4, 'acct 4', '2009-08-31');</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="22"/>
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>55</v>
+      </c>
+      <c r="C355">
+        <v>4</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E355" s="2">
+        <f t="shared" si="23"/>
+        <v>40066</v>
+      </c>
+      <c r="G355" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(355, 55, 4, 'acct 4', '2009-09-10');</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="22"/>
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>56</v>
+      </c>
+      <c r="C356">
+        <v>4</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E356" s="2">
+        <f t="shared" si="23"/>
+        <v>40076</v>
+      </c>
+      <c r="G356" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(356, 56, 4, 'acct 4', '2009-09-20');</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="22"/>
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>57</v>
+      </c>
+      <c r="C357">
+        <v>4</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E357" s="2">
+        <f t="shared" si="23"/>
+        <v>40086</v>
+      </c>
+      <c r="G357" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(357, 57, 4, 'acct 4', '2009-09-30');</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="22"/>
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>58</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E358" s="2">
+        <f t="shared" si="23"/>
+        <v>40096</v>
+      </c>
+      <c r="G358" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(358, 58, 4, 'acct 4', '2009-10-10');</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="22"/>
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>59</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E359" s="2">
+        <f t="shared" si="23"/>
+        <v>40106</v>
+      </c>
+      <c r="G359" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(359, 59, 4, 'acct 4', '2009-10-20');</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="22"/>
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>60</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E360" s="2">
+        <f t="shared" si="23"/>
+        <v>40116</v>
+      </c>
+      <c r="G360" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(360, 60, 4, 'acct 4', '2009-10-30');</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="22"/>
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>61</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+      <c r="D361" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E361" s="2">
+        <f t="shared" si="23"/>
+        <v>40126</v>
+      </c>
+      <c r="G361" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(361, 61, 4, 'acct 4', '2009-11-09');</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="22"/>
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>62</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E362" s="2">
+        <f t="shared" si="23"/>
+        <v>40136</v>
+      </c>
+      <c r="G362" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(362, 62, 4, 'acct 4', '2009-11-19');</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="22"/>
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>63</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+      <c r="D363" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E363" s="2">
+        <f t="shared" si="23"/>
+        <v>40146</v>
+      </c>
+      <c r="G363" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(363, 63, 4, 'acct 4', '2009-11-29');</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="22"/>
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>64</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E364" s="2">
+        <f t="shared" si="23"/>
+        <v>40156</v>
+      </c>
+      <c r="G364" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(364, 64, 4, 'acct 4', '2009-12-09');</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="22"/>
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>65</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E365" s="2">
+        <f t="shared" si="23"/>
+        <v>40166</v>
+      </c>
+      <c r="G365" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(365, 65, 4, 'acct 4', '2009-12-19');</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="22"/>
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>66</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E366" s="2">
+        <f t="shared" si="23"/>
+        <v>40176</v>
+      </c>
+      <c r="G366" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(366, 66, 4, 'acct 4', '2009-12-29');</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="22"/>
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>67</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E367" s="2">
+        <f t="shared" si="23"/>
+        <v>40186</v>
+      </c>
+      <c r="G367" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(367, 67, 4, 'acct 4', '2010-01-08');</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="22"/>
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>68</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+      <c r="D368" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E368" s="2">
+        <f t="shared" si="23"/>
+        <v>40196</v>
+      </c>
+      <c r="G368" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(368, 68, 4, 'acct 4', '2010-01-18');</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="22"/>
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>69</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E369" s="2">
+        <f t="shared" si="23"/>
+        <v>40206</v>
+      </c>
+      <c r="G369" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(369, 69, 4, 'acct 4', '2010-01-28');</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <f t="shared" si="22"/>
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>70</v>
+      </c>
+      <c r="C370">
+        <v>4</v>
+      </c>
+      <c r="D370" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E370" s="2">
+        <f t="shared" si="23"/>
+        <v>40216</v>
+      </c>
+      <c r="G370" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(370, 70, 4, 'acct 4', '2010-02-07');</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <f t="shared" si="22"/>
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>71</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+      <c r="D371" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E371" s="2">
+        <f t="shared" si="23"/>
+        <v>40226</v>
+      </c>
+      <c r="G371" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(371, 71, 4, 'acct 4', '2010-02-17');</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <f t="shared" si="22"/>
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>72</v>
+      </c>
+      <c r="C372">
+        <v>4</v>
+      </c>
+      <c r="D372" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E372" s="2">
+        <f t="shared" si="23"/>
+        <v>40236</v>
+      </c>
+      <c r="G372" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(372, 72, 4, 'acct 4', '2010-02-27');</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <f t="shared" si="22"/>
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>73</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E373" s="2">
+        <f t="shared" si="23"/>
+        <v>40246</v>
+      </c>
+      <c r="G373" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(373, 73, 4, 'acct 4', '2010-03-09');</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <f t="shared" si="22"/>
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>74</v>
+      </c>
+      <c r="C374">
+        <v>4</v>
+      </c>
+      <c r="D374" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E374" s="2">
+        <f t="shared" si="23"/>
+        <v>40256</v>
+      </c>
+      <c r="G374" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(374, 74, 4, 'acct 4', '2010-03-19');</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <f t="shared" si="22"/>
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>75</v>
+      </c>
+      <c r="C375">
+        <v>4</v>
+      </c>
+      <c r="D375" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E375" s="2">
+        <f t="shared" si="23"/>
+        <v>40266</v>
+      </c>
+      <c r="G375" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(375, 75, 4, 'acct 4', '2010-03-29');</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <f t="shared" si="22"/>
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>76</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E376" s="2">
+        <f t="shared" si="23"/>
+        <v>40276</v>
+      </c>
+      <c r="G376" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(376, 76, 4, 'acct 4', '2010-04-08');</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <f t="shared" si="22"/>
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>77</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E377" s="2">
+        <f t="shared" si="23"/>
+        <v>40286</v>
+      </c>
+      <c r="G377" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(377, 77, 4, 'acct 4', '2010-04-18');</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <f t="shared" si="22"/>
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>78</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+      <c r="D378" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E378" s="2">
+        <f t="shared" si="23"/>
+        <v>40296</v>
+      </c>
+      <c r="G378" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(378, 78, 4, 'acct 4', '2010-04-28');</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <f t="shared" si="22"/>
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>79</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+      <c r="D379" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E379" s="2">
+        <f t="shared" si="23"/>
+        <v>40306</v>
+      </c>
+      <c r="G379" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(379, 79, 4, 'acct 4', '2010-05-08');</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <f t="shared" si="22"/>
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>80</v>
+      </c>
+      <c r="C380">
+        <v>4</v>
+      </c>
+      <c r="D380" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E380" s="2">
+        <f t="shared" si="23"/>
+        <v>40316</v>
+      </c>
+      <c r="G380" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(380, 80, 4, 'acct 4', '2010-05-18');</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <f t="shared" si="22"/>
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>81</v>
+      </c>
+      <c r="C381">
+        <v>4</v>
+      </c>
+      <c r="D381" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E381" s="2">
+        <f t="shared" si="23"/>
+        <v>40326</v>
+      </c>
+      <c r="G381" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(381, 81, 4, 'acct 4', '2010-05-28');</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <f t="shared" si="22"/>
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>82</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E382" s="2">
+        <f t="shared" si="23"/>
+        <v>40336</v>
+      </c>
+      <c r="G382" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(382, 82, 4, 'acct 4', '2010-06-07');</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <f t="shared" si="22"/>
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>83</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+      <c r="D383" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E383" s="2">
+        <f t="shared" si="23"/>
+        <v>40346</v>
+      </c>
+      <c r="G383" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(383, 83, 4, 'acct 4', '2010-06-17');</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <f t="shared" si="22"/>
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>84</v>
+      </c>
+      <c r="C384">
+        <v>4</v>
+      </c>
+      <c r="D384" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E384" s="2">
+        <f t="shared" si="23"/>
+        <v>40356</v>
+      </c>
+      <c r="G384" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(384, 84, 4, 'acct 4', '2010-06-27');</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <f t="shared" si="22"/>
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>85</v>
+      </c>
+      <c r="C385">
+        <v>4</v>
+      </c>
+      <c r="D385" t="str">
+        <f t="shared" si="20"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E385" s="2">
+        <f t="shared" si="23"/>
+        <v>40366</v>
+      </c>
+      <c r="G385" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into account values(385, 85, 4, 'acct 4', '2010-07-07');</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <f t="shared" si="22"/>
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>86</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+      <c r="D386" t="str">
+        <f t="shared" ref="D386:D400" si="24">CONCATENATE("acct ", C386)</f>
+        <v>acct 4</v>
+      </c>
+      <c r="E386" s="2">
+        <f t="shared" si="23"/>
+        <v>40376</v>
+      </c>
+      <c r="G386" t="str">
+        <f t="shared" ref="G386:G400" si="25">CONCATENATE("insert into account values(", A386, ", ", B386, ", ", C386, ", '", D386, "', '", TEXT(E386, "yyyy-mm-dd"), "');")</f>
+        <v>insert into account values(386, 86, 4, 'acct 4', '2010-07-17');</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <f t="shared" ref="A387:A400" si="26">A386+1</f>
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>87</v>
+      </c>
+      <c r="C387">
+        <v>4</v>
+      </c>
+      <c r="D387" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E387" s="2">
+        <f t="shared" ref="E387:E400" si="27">E386+10</f>
+        <v>40386</v>
+      </c>
+      <c r="G387" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(387, 87, 4, 'acct 4', '2010-07-27');</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <f t="shared" si="26"/>
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>88</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+      <c r="D388" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E388" s="2">
+        <f t="shared" si="27"/>
+        <v>40396</v>
+      </c>
+      <c r="G388" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(388, 88, 4, 'acct 4', '2010-08-06');</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <f t="shared" si="26"/>
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>89</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+      <c r="D389" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E389" s="2">
+        <f t="shared" si="27"/>
+        <v>40406</v>
+      </c>
+      <c r="G389" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(389, 89, 4, 'acct 4', '2010-08-16');</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <f t="shared" si="26"/>
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>90</v>
+      </c>
+      <c r="C390">
+        <v>4</v>
+      </c>
+      <c r="D390" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E390" s="2">
+        <f t="shared" si="27"/>
+        <v>40416</v>
+      </c>
+      <c r="G390" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(390, 90, 4, 'acct 4', '2010-08-26');</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <f t="shared" si="26"/>
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>91</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E391" s="2">
+        <f t="shared" si="27"/>
+        <v>40426</v>
+      </c>
+      <c r="G391" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(391, 91, 4, 'acct 4', '2010-09-05');</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <f t="shared" si="26"/>
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>92</v>
+      </c>
+      <c r="C392">
+        <v>4</v>
+      </c>
+      <c r="D392" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E392" s="2">
+        <f t="shared" si="27"/>
+        <v>40436</v>
+      </c>
+      <c r="G392" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(392, 92, 4, 'acct 4', '2010-09-15');</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <f t="shared" si="26"/>
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>93</v>
+      </c>
+      <c r="C393">
+        <v>4</v>
+      </c>
+      <c r="D393" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E393" s="2">
+        <f t="shared" si="27"/>
+        <v>40446</v>
+      </c>
+      <c r="G393" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(393, 93, 4, 'acct 4', '2010-09-25');</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <f t="shared" si="26"/>
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>94</v>
+      </c>
+      <c r="C394">
+        <v>4</v>
+      </c>
+      <c r="D394" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E394" s="2">
+        <f t="shared" si="27"/>
+        <v>40456</v>
+      </c>
+      <c r="G394" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(394, 94, 4, 'acct 4', '2010-10-05');</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <f t="shared" si="26"/>
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>95</v>
+      </c>
+      <c r="C395">
+        <v>4</v>
+      </c>
+      <c r="D395" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E395" s="2">
+        <f t="shared" si="27"/>
+        <v>40466</v>
+      </c>
+      <c r="G395" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(395, 95, 4, 'acct 4', '2010-10-15');</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <f t="shared" si="26"/>
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>96</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E396" s="2">
+        <f t="shared" si="27"/>
+        <v>40476</v>
+      </c>
+      <c r="G396" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(396, 96, 4, 'acct 4', '2010-10-25');</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <f t="shared" si="26"/>
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>97</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E397" s="2">
+        <f t="shared" si="27"/>
+        <v>40486</v>
+      </c>
+      <c r="G397" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(397, 97, 4, 'acct 4', '2010-11-04');</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <f t="shared" si="26"/>
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>98</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E398" s="2">
+        <f t="shared" si="27"/>
+        <v>40496</v>
+      </c>
+      <c r="G398" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(398, 98, 4, 'acct 4', '2010-11-14');</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <f t="shared" si="26"/>
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>99</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+      <c r="D399" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E399" s="2">
+        <f t="shared" si="27"/>
+        <v>40506</v>
+      </c>
+      <c r="G399" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(399, 99, 4, 'acct 4', '2010-11-24');</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <f t="shared" si="26"/>
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>100</v>
+      </c>
+      <c r="C400">
+        <v>4</v>
+      </c>
+      <c r="D400" t="str">
+        <f t="shared" si="24"/>
+        <v>acct 4</v>
+      </c>
+      <c r="E400" s="2">
+        <f t="shared" si="27"/>
+        <v>40516</v>
+      </c>
+      <c r="G400" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into account values(400, 100, 4, 'acct 4', '2010-12-04');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -3376,7 +13003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3443,7 +13070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3624,7 +13251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
@@ -5146,7 +14773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5219,12 +14846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5249,7 +14876,7 @@
         <v>0.12759999999999999</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" si="0">CONCATENATE("insert into rate values('",A2,"',",B2,");")</f>
+        <f t="shared" ref="D2:D6" si="0">CONCATENATE("insert into rate values('",A2,"',",B2,");")</f>
         <v>insert into rate values('HKD',0.1276);</v>
       </c>
     </row>
@@ -5287,6 +14914,18 @@
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>insert into rate values('GBP',1.2753);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into rate values('USD',1);</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="rm_cust" sheetId="5" r:id="rId6"/>
     <sheet name="actions" sheetId="6" r:id="rId7"/>
     <sheet name="rate" sheetId="7" r:id="rId8"/>
+    <sheet name="share_issue" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="60">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,12 +260,28 @@
     <t>USD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +323,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,20 +350,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3134,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G400"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G400"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14848,10 +14879,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14876,7 +14907,7 @@
         <v>0.12759999999999999</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D6" si="0">CONCATENATE("insert into rate values('",A2,"',",B2,");")</f>
+        <f t="shared" ref="D2:D7" si="0">CONCATENATE("insert into rate values('",A2,"',",B2,");")</f>
         <v>insert into rate values('HKD',0.1276);</v>
       </c>
     </row>
@@ -14926,6 +14957,725 @@
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>insert into rate values('USD',1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into rate values('SGD',0.7273);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE("issue ", A1)</f>
+        <v>issue 1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("Share Issue ", A1, "(", G1, ")")</f>
+        <v>Share Issue 1(HKD)</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("Issue  ", A1)</f>
+        <v>Issue  1</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B1, "', '", C1, "', '", D1, "', '", E1, "', ", F1, ", '", G1, "', ", H1, ");")</f>
+        <v>insert into share_issue values('issue 1', 'Share Issue 1(HKD)', 'HK', 'Issue  1', 100, 'HKD', 1);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B20" si="0">CONCATENATE("issue ", A2)</f>
+        <v>issue 2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C20" si="1">CONCATENATE("Share Issue ", A2, "(", G2, ")")</f>
+        <v>Share Issue 2(GBP)</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E20" si="2">CONCATENATE("Issue  ", A2)</f>
+        <v>Issue  2</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J20" si="3">CONCATENATE("insert into share_issue values('", B2, "', '", C2, "', '", D2, "', '", E2, "', ", F2, ", '", G2, "', ", H2, ");")</f>
+        <v>insert into share_issue values('issue 2', 'Share Issue 2(GBP)', 'EU', 'Issue  2', 80, 'GBP', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f t="shared" ref="A3:A20" si="4">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 3(USD)</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  3</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 3', 'Share Issue 3(USD)', 'US', 'Issue  3', 60, 'USD', 3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 4(SGD)</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  4</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 4', 'Share Issue 4(SGD)', 'SG', 'Issue  4', 40, 'SGD', 4);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 5</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 5(HKD)</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  5</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 5', 'Share Issue 5(HKD)', 'HK', 'Issue  5', 20, 'HKD', 5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 6</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 6(GBP)</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  6</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 6', 'Share Issue 6(GBP)', 'EU', 'Issue  6', 100, 'GBP', 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 7(USD)</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  7</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 7', 'Share Issue 7(USD)', 'US', 'Issue  7', 80, 'USD', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 8(SGD)</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  8</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 8', 'Share Issue 8(SGD)', 'SG', 'Issue  8', 60, 'SGD', 3);</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 9(HKD)</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  9</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 9', 'Share Issue 9(HKD)', 'HK', 'Issue  9', 40, 'HKD', 4);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 10(GBP)</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  10</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 10', 'Share Issue 10(GBP)', 'EU', 'Issue  10', 20, 'GBP', 5);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 11</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 11(USD)</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  11</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 11', 'Share Issue 11(USD)', 'US', 'Issue  11', 100, 'USD', 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 12</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 12(SGD)</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  12</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 12', 'Share Issue 12(SGD)', 'SG', 'Issue  12', 80, 'SGD', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 13(HKD)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  13</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 13', 'Share Issue 13(HKD)', 'HK', 'Issue  13', 60, 'HKD', 3);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 14(GBP)</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  14</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 14', 'Share Issue 14(GBP)', 'EU', 'Issue  14', 40, 'GBP', 4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 15</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 15(USD)</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  15</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 15', 'Share Issue 15(USD)', 'US', 'Issue  15', 20, 'USD', 5);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 16</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 16(SGD)</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  16</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 16', 'Share Issue 16(SGD)', 'SG', 'Issue  16', 100, 'SGD', 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 17</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 17(HKD)</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  17</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 17', 'Share Issue 17(HKD)', 'HK', 'Issue  17', 80, 'HKD', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 18</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 18(GBP)</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  18</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 18', 'Share Issue 18(GBP)', 'EU', 'Issue  18', 60, 'GBP', 3);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 19</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 19(USD)</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  19</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 19', 'Share Issue 19(USD)', 'US', 'Issue  19', 40, 'USD', 4);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>issue 20</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Share Issue 20(SGD)</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>Issue  20</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into share_issue values('issue 20', 'Share Issue 20(SGD)', 'SG', 'Issue  20', 20, 'SGD', 5);</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="5480" yWindow="8260" windowWidth="27780" windowHeight="18000" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="63">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14979,7 +14991,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J20"/>
@@ -14994,11 +15006,13 @@
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="79.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15014,8 +15028,8 @@
         <v>57</v>
       </c>
       <c r="E1" t="str">
-        <f>CONCATENATE("Issue  ", A1)</f>
-        <v>Issue  1</v>
+        <f>CONCATENATE("Issuer  ", A1)</f>
+        <v>Issuer  1</v>
       </c>
       <c r="F1">
         <v>100</v>
@@ -15023,15 +15037,21 @@
       <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="str">
-        <f>CONCATENATE("insert into share_issue values('", B1, "', '", C1, "', '", D1, "', '", E1, "', ", F1, ", '", G1, "', ", H1, ");")</f>
-        <v>insert into share_issue values('issue 1', 'Share Issue 1(HKD)', 'HK', 'Issue  1', 100, 'HKD', 1);</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B1, "', '", C1, "', '", D1, "', '", E1, "', ", F1, ", '", G1, "', ", I1, ");")</f>
+        <v>insert into share_issue values('issue 1', 'Share Issue 1(HKD)', 'HK', 'Issuer  1', 100, 'HKD', AAA);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -15048,8 +15068,8 @@
         <v>58</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E20" si="2">CONCATENATE("Issue  ", A2)</f>
-        <v>Issue  2</v>
+        <f t="shared" ref="E2:E20" si="2">CONCATENATE("Issuer  ", A2)</f>
+        <v>Issuer  2</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -15057,17 +15077,23 @@
       <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J20" si="3">CONCATENATE("insert into share_issue values('", B2, "', '", C2, "', '", D2, "', '", E2, "', ", F2, ", '", G2, "', ", H2, ");")</f>
-        <v>insert into share_issue values('issue 2', 'Share Issue 2(GBP)', 'EU', 'Issue  2', 80, 'GBP', 2);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B2, "', '", C2, "', '", D2, "', '", E2, "', ", F2, ", '", G2, "', ", I2, ");")</f>
+        <v>insert into share_issue values('issue 2', 'Share Issue 2(GBP)', 'EU', 'Issuer  2', 80, 'GBP', AAA);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A20" si="4">A2+1</f>
+        <f t="shared" ref="A3:A20" si="3">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="str">
@@ -15083,7 +15109,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  3</v>
+        <v>Issuer  3</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -15091,17 +15117,23 @@
       <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="str">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B3, "', '", C3, "', '", D3, "', '", E3, "', ", F3, ", '", G3, "', ", I3, ");")</f>
+        <v>insert into share_issue values('issue 3', 'Share Issue 3(USD)', 'US', 'Issuer  3', 60, 'USD', AAA);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 3', 'Share Issue 3(USD)', 'US', 'Issue  3', 60, 'USD', 3);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B4" t="str">
@@ -15117,7 +15149,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  4</v>
+        <v>Issuer  4</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -15125,17 +15157,23 @@
       <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B4, "', '", C4, "', '", D4, "', '", E4, "', ", F4, ", '", G4, "', ", I4, ");")</f>
+        <v>insert into share_issue values('issue 4', 'Share Issue 4(SGD)', 'SG', 'Issuer  4', 40, 'SGD', AAA);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 4', 'Share Issue 4(SGD)', 'SG', 'Issue  4', 40, 'SGD', 4);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B5" t="str">
@@ -15151,7 +15189,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  5</v>
+        <v>Issuer  5</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -15159,17 +15197,23 @@
       <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B5, "', '", C5, "', '", D5, "', '", E5, "', ", F5, ", '", G5, "', ", I5, ");")</f>
+        <v>insert into share_issue values('issue 5', 'Share Issue 5(HKD)', 'HK', 'Issuer  5', 20, 'HKD', AAA);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 5', 'Share Issue 5(HKD)', 'HK', 'Issue  5', 20, 'HKD', 5);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B6" t="str">
@@ -15185,7 +15229,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  6</v>
+        <v>Issuer  6</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -15193,17 +15237,23 @@
       <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B6, "', '", C6, "', '", D6, "', '", E6, "', ", F6, ", '", G6, "', ", I6, ");")</f>
+        <v>insert into share_issue values('issue 6', 'Share Issue 6(GBP)', 'EU', 'Issuer  6', 100, 'GBP', AAA);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 6', 'Share Issue 6(GBP)', 'EU', 'Issue  6', 100, 'GBP', 1);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B7" t="str">
@@ -15219,7 +15269,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  7</v>
+        <v>Issuer  7</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -15227,17 +15277,23 @@
       <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B7, "', '", C7, "', '", D7, "', '", E7, "', ", F7, ", '", G7, "', ", I7, ");")</f>
+        <v>insert into share_issue values('issue 7', 'Share Issue 7(USD)', 'US', 'Issuer  7', 80, 'USD', AAA);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 7', 'Share Issue 7(USD)', 'US', 'Issue  7', 80, 'USD', 2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B8" t="str">
@@ -15253,7 +15309,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  8</v>
+        <v>Issuer  8</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -15261,18 +15317,24 @@
       <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B8, "', '", C8, "', '", D8, "', '", E8, "', ", F8, ", '", G8, "', ", I8, ");")</f>
+        <v>insert into share_issue values('issue 8', 'Share Issue 8(SGD)', 'SG', 'Issuer  8', 60, 'SGD', AAA);</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 8', 'Share Issue 8(SGD)', 'SG', 'Issue  8', 60, 'SGD', 3);</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B9" t="str">
@@ -15288,7 +15350,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  9</v>
+        <v>Issuer  9</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -15296,17 +15358,23 @@
       <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B9, "', '", C9, "', '", D9, "', '", E9, "', ", F9, ", '", G9, "', ", I9, ");")</f>
+        <v>insert into share_issue values('issue 9', 'Share Issue 9(HKD)', 'HK', 'Issuer  9', 40, 'HKD', AAA);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 9', 'Share Issue 9(HKD)', 'HK', 'Issue  9', 40, 'HKD', 4);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B10" t="str">
@@ -15322,7 +15390,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  10</v>
+        <v>Issuer  10</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -15330,17 +15398,23 @@
       <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B10, "', '", C10, "', '", D10, "', '", E10, "', ", F10, ", '", G10, "', ", I10, ");")</f>
+        <v>insert into share_issue values('issue 10', 'Share Issue 10(GBP)', 'EU', 'Issuer  10', 20, 'GBP', AAA);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 10', 'Share Issue 10(GBP)', 'EU', 'Issue  10', 20, 'GBP', 5);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B11" t="str">
@@ -15356,7 +15430,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  11</v>
+        <v>Issuer  11</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -15364,17 +15438,23 @@
       <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B11, "', '", C11, "', '", D11, "', '", E11, "', ", F11, ", '", G11, "', ", I11, ");")</f>
+        <v>insert into share_issue values('issue 11', 'Share Issue 11(USD)', 'US', 'Issuer  11', 100, 'USD', AAA);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 11', 'Share Issue 11(USD)', 'US', 'Issue  11', 100, 'USD', 1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B12" t="str">
@@ -15390,7 +15470,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  12</v>
+        <v>Issuer  12</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -15398,17 +15478,23 @@
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B12, "', '", C12, "', '", D12, "', '", E12, "', ", F12, ", '", G12, "', ", I12, ");")</f>
+        <v>insert into share_issue values('issue 12', 'Share Issue 12(SGD)', 'SG', 'Issuer  12', 80, 'SGD', AAA);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 12', 'Share Issue 12(SGD)', 'SG', 'Issue  12', 80, 'SGD', 2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B13" t="str">
@@ -15424,7 +15510,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  13</v>
+        <v>Issuer  13</v>
       </c>
       <c r="F13">
         <v>60</v>
@@ -15432,17 +15518,23 @@
       <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B13, "', '", C13, "', '", D13, "', '", E13, "', ", F13, ", '", G13, "', ", I13, ");")</f>
+        <v>insert into share_issue values('issue 13', 'Share Issue 13(HKD)', 'HK', 'Issuer  13', 60, 'HKD', AAA);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 13', 'Share Issue 13(HKD)', 'HK', 'Issue  13', 60, 'HKD', 3);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B14" t="str">
@@ -15458,7 +15550,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  14</v>
+        <v>Issuer  14</v>
       </c>
       <c r="F14">
         <v>40</v>
@@ -15466,17 +15558,23 @@
       <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B14, "', '", C14, "', '", D14, "', '", E14, "', ", F14, ", '", G14, "', ", I14, ");")</f>
+        <v>insert into share_issue values('issue 14', 'Share Issue 14(GBP)', 'EU', 'Issuer  14', 40, 'GBP', AAA);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 14', 'Share Issue 14(GBP)', 'EU', 'Issue  14', 40, 'GBP', 4);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B15" t="str">
@@ -15492,7 +15590,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  15</v>
+        <v>Issuer  15</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -15500,17 +15598,23 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B15, "', '", C15, "', '", D15, "', '", E15, "', ", F15, ", '", G15, "', ", I15, ");")</f>
+        <v>insert into share_issue values('issue 15', 'Share Issue 15(USD)', 'US', 'Issuer  15', 20, 'USD', AAA);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 15', 'Share Issue 15(USD)', 'US', 'Issue  15', 20, 'USD', 5);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B16" t="str">
@@ -15526,7 +15630,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  16</v>
+        <v>Issuer  16</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -15534,17 +15638,23 @@
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B16, "', '", C16, "', '", D16, "', '", E16, "', ", F16, ", '", G16, "', ", I16, ");")</f>
+        <v>insert into share_issue values('issue 16', 'Share Issue 16(SGD)', 'SG', 'Issuer  16', 100, 'SGD', AAA);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 16', 'Share Issue 16(SGD)', 'SG', 'Issue  16', 100, 'SGD', 1);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B17" t="str">
@@ -15560,7 +15670,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  17</v>
+        <v>Issuer  17</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -15568,17 +15678,23 @@
       <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B17, "', '", C17, "', '", D17, "', '", E17, "', ", F17, ", '", G17, "', ", I17, ");")</f>
+        <v>insert into share_issue values('issue 17', 'Share Issue 17(HKD)', 'HK', 'Issuer  17', 80, 'HKD', AAA);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 17', 'Share Issue 17(HKD)', 'HK', 'Issue  17', 80, 'HKD', 2);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B18" t="str">
@@ -15594,7 +15710,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  18</v>
+        <v>Issuer  18</v>
       </c>
       <c r="F18">
         <v>60</v>
@@ -15602,17 +15718,23 @@
       <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B18, "', '", C18, "', '", D18, "', '", E18, "', ", F18, ", '", G18, "', ", I18, ");")</f>
+        <v>insert into share_issue values('issue 18', 'Share Issue 18(GBP)', 'EU', 'Issuer  18', 60, 'GBP', AAA);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 18', 'Share Issue 18(GBP)', 'EU', 'Issue  18', 60, 'GBP', 3);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B19" t="str">
@@ -15628,7 +15750,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  19</v>
+        <v>Issuer  19</v>
       </c>
       <c r="F19">
         <v>40</v>
@@ -15636,17 +15758,23 @@
       <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B19, "', '", C19, "', '", D19, "', '", E19, "', ", F19, ", '", G19, "', ", I19, ");")</f>
+        <v>insert into share_issue values('issue 19', 'Share Issue 19(USD)', 'US', 'Issuer  19', 40, 'USD', AAA);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
         <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 19', 'Share Issue 19(USD)', 'US', 'Issue  19', 40, 'USD', 4);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B20" t="str">
@@ -15662,7 +15790,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v>Issue  20</v>
+        <v>Issuer  20</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -15670,12 +15798,18 @@
       <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into share_issue values('issue 20', 'Share Issue 20(SGD)', 'SG', 'Issue  20', 20, 'SGD', 5);</v>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="str">
+        <f>CONCATENATE("insert into share_issue values('", B20, "', '", C20, "', '", D20, "', '", E20, "', ", F20, ", '", G20, "', ", I20, ");")</f>
+        <v>insert into share_issue values('issue 20', 'Share Issue 20(SGD)', 'SG', 'Issuer  20', 20, 'SGD', AAA);</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="4840" windowWidth="27780" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="27740" windowHeight="18000" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -4920,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K420"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C400"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4965,8 +4965,8 @@
         <v>0</v>
       </c>
       <c r="K1" t="str">
-        <f>CONCATENATE("insert into bond_position values(", A1, ", ", B1, ", ", C1, ", '", D1, "', '", E1, "', ", F1, ", ", H1, ", ", I1, ");")</f>
-        <v>insert into bond_position values(1, 1, 1, 'issue 1', 'HKD', 0.01, 10000, 0);</v>
+        <f>CONCATENATE("insert into bond_position values(", A1, ", ", B1, ", ", C1, ", '", D1, "', '", E1, "', ", F1, ", ", G1, ", ", H1, ", ", I1, ");")</f>
+        <v>insert into bond_position values(1, 1, 1, 'issue 1', 'HKD', 0.01, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -5001,8 +5001,8 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K65" si="0">CONCATENATE("insert into bond_position values(", A2, ", ", B2, ", ", C2, ", '", D2, "', '", E2, "', ", F2, ", ", H2, ", ", I2, ");")</f>
-        <v>insert into bond_position values(2, 1, 2, 'issue 2', 'GBP', 0.011, 9900, 0);</v>
+        <f t="shared" ref="K2:K65" si="0">CONCATENATE("insert into bond_position values(", A2, ", ", B2, ", ", C2, ", '", D2, "', '", E2, "', ", F2, ", ", G2, ", ", H2, ", ", I2, ");")</f>
+        <v>insert into bond_position values(2, 1, 2, 'issue 2', 'GBP', 0.011, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(3, 1, 3, 'issue 3', 'USD', 0.012, 9800, 0);</v>
+        <v>insert into bond_position values(3, 1, 3, 'issue 3', 'USD', 0.012, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(4, 1, 4, 'issue 4', 'SGD', 0.013, 9700, 0);</v>
+        <v>insert into bond_position values(4, 1, 4, 'issue 4', 'SGD', 0.013, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(5, 2, 1, 'issue 5', 'HKD', 0.014, 9600, 0);</v>
+        <v>insert into bond_position values(5, 2, 1, 'issue 5', 'HKD', 0.014, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(6, 2, 2, 'issue 6', 'GBP', 0.015, 9500, 0);</v>
+        <v>insert into bond_position values(6, 2, 2, 'issue 6', 'GBP', 0.015, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(7, 2, 3, 'issue 7', 'USD', 0.016, 9400, 0);</v>
+        <v>insert into bond_position values(7, 2, 3, 'issue 7', 'USD', 0.016, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(8, 2, 4, 'issue 8', 'SGD', 0.017, 9300, 0);</v>
+        <v>insert into bond_position values(8, 2, 4, 'issue 8', 'SGD', 0.017, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(9, 3, 1, 'issue 9', 'HKD', 0.018, 9200, 0);</v>
+        <v>insert into bond_position values(9, 3, 1, 'issue 9', 'HKD', 0.018, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(10, 3, 2, 'issue 10', 'GBP', 0.019, 9100, 0);</v>
+        <v>insert into bond_position values(10, 3, 2, 'issue 10', 'GBP', 0.019, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(11, 3, 3, 'issue 11', 'USD', 0.02, 9000, 0);</v>
+        <v>insert into bond_position values(11, 3, 3, 'issue 11', 'USD', 0.02, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(12, 3, 4, 'issue 12', 'SGD', 0.021, 8900, 0);</v>
+        <v>insert into bond_position values(12, 3, 4, 'issue 12', 'SGD', 0.021, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(13, 4, 1, 'issue 13', 'HKD', 0.022, 8800, 0);</v>
+        <v>insert into bond_position values(13, 4, 1, 'issue 13', 'HKD', 0.022, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(14, 4, 2, 'issue 14', 'GBP', 0.023, 8700, 0);</v>
+        <v>insert into bond_position values(14, 4, 2, 'issue 14', 'GBP', 0.023, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(15, 4, 3, 'issue 15', 'USD', 0.024, 8600, 0);</v>
+        <v>insert into bond_position values(15, 4, 3, 'issue 15', 'USD', 0.024, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(16, 4, 4, 'issue 16', 'SGD', 0.025, 8500, 0);</v>
+        <v>insert into bond_position values(16, 4, 4, 'issue 16', 'SGD', 0.025, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(17, 5, 1, 'issue 17', 'HKD', 0.026, 8400, 0);</v>
+        <v>insert into bond_position values(17, 5, 1, 'issue 17', 'HKD', 0.026, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(18, 5, 2, 'issue 18', 'GBP', 0.027, 8300, 0);</v>
+        <v>insert into bond_position values(18, 5, 2, 'issue 18', 'GBP', 0.027, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(19, 5, 3, 'issue 19', 'USD', 0.028, 8200, 0);</v>
+        <v>insert into bond_position values(19, 5, 3, 'issue 19', 'USD', 0.028, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(20, 5, 4, 'issue 20', 'SGD', 0.029, 8100, 0);</v>
+        <v>insert into bond_position values(20, 5, 4, 'issue 20', 'SGD', 0.029, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(21, 6, 1, 'issue 1', 'HKD', 0.03, 8000, 0);</v>
+        <v>insert into bond_position values(21, 6, 1, 'issue 1', 'HKD', 0.03, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(22, 6, 2, 'issue 2', 'GBP', 0.031, 7900, 0);</v>
+        <v>insert into bond_position values(22, 6, 2, 'issue 2', 'GBP', 0.031, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(23, 6, 3, 'issue 3', 'USD', 0.032, 7800, 0);</v>
+        <v>insert into bond_position values(23, 6, 3, 'issue 3', 'USD', 0.032, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(24, 6, 4, 'issue 4', 'SGD', 0.033, 7700, 0);</v>
+        <v>insert into bond_position values(24, 6, 4, 'issue 4', 'SGD', 0.033, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(25, 7, 1, 'issue 5', 'HKD', 0.034, 7600, 0);</v>
+        <v>insert into bond_position values(25, 7, 1, 'issue 5', 'HKD', 0.034, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(26, 7, 2, 'issue 6', 'GBP', 0.035, 7500, 0);</v>
+        <v>insert into bond_position values(26, 7, 2, 'issue 6', 'GBP', 0.035, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(27, 7, 3, 'issue 7', 'USD', 0.036, 7400, 0);</v>
+        <v>insert into bond_position values(27, 7, 3, 'issue 7', 'USD', 0.036, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(28, 7, 4, 'issue 8', 'SGD', 0.037, 7300, 0);</v>
+        <v>insert into bond_position values(28, 7, 4, 'issue 8', 'SGD', 0.037, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(29, 8, 1, 'issue 9', 'HKD', 0.038, 7200, 0);</v>
+        <v>insert into bond_position values(29, 8, 1, 'issue 9', 'HKD', 0.038, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(30, 8, 2, 'issue 10', 'GBP', 0.039, 7100, 0);</v>
+        <v>insert into bond_position values(30, 8, 2, 'issue 10', 'GBP', 0.039, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(31, 8, 3, 'issue 11', 'USD', 0.04, 10000, 0);</v>
+        <v>insert into bond_position values(31, 8, 3, 'issue 11', 'USD', 0.04, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(32, 8, 4, 'issue 12', 'SGD', 0.041, 9900, 0);</v>
+        <v>insert into bond_position values(32, 8, 4, 'issue 12', 'SGD', 0.041, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(33, 9, 1, 'issue 13', 'HKD', 0.042, 9800, 0);</v>
+        <v>insert into bond_position values(33, 9, 1, 'issue 13', 'HKD', 0.042, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(34, 9, 2, 'issue 14', 'GBP', 0.043, 9700, 0);</v>
+        <v>insert into bond_position values(34, 9, 2, 'issue 14', 'GBP', 0.043, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(35, 9, 3, 'issue 15', 'USD', 0.044, 9600, 0);</v>
+        <v>insert into bond_position values(35, 9, 3, 'issue 15', 'USD', 0.044, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(36, 9, 4, 'issue 16', 'SGD', 0.045, 9500, 0);</v>
+        <v>insert into bond_position values(36, 9, 4, 'issue 16', 'SGD', 0.045, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(37, 10, 1, 'issue 17', 'HKD', 0.046, 9400, 0);</v>
+        <v>insert into bond_position values(37, 10, 1, 'issue 17', 'HKD', 0.046, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(38, 10, 2, 'issue 18', 'GBP', 0.047, 9300, 0);</v>
+        <v>insert into bond_position values(38, 10, 2, 'issue 18', 'GBP', 0.047, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(39, 10, 3, 'issue 19', 'USD', 0.048, 9200, 0);</v>
+        <v>insert into bond_position values(39, 10, 3, 'issue 19', 'USD', 0.048, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(40, 10, 4, 'issue 20', 'SGD', 0.049, 9100, 0);</v>
+        <v>insert into bond_position values(40, 10, 4, 'issue 20', 'SGD', 0.049, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(41, 11, 1, 'issue 1', 'HKD', 0.05, 9000, 0);</v>
+        <v>insert into bond_position values(41, 11, 1, 'issue 1', 'HKD', 0.05, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(42, 11, 2, 'issue 2', 'GBP', 0.051, 8900, 0);</v>
+        <v>insert into bond_position values(42, 11, 2, 'issue 2', 'GBP', 0.051, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(43, 11, 3, 'issue 3', 'USD', 0.052, 8800, 0);</v>
+        <v>insert into bond_position values(43, 11, 3, 'issue 3', 'USD', 0.052, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(44, 11, 4, 'issue 4', 'SGD', 0.053, 8700, 0);</v>
+        <v>insert into bond_position values(44, 11, 4, 'issue 4', 'SGD', 0.053, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(45, 12, 1, 'issue 5', 'HKD', 0.054, 8600, 0);</v>
+        <v>insert into bond_position values(45, 12, 1, 'issue 5', 'HKD', 0.054, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(46, 12, 2, 'issue 6', 'GBP', 0.055, 8500, 0);</v>
+        <v>insert into bond_position values(46, 12, 2, 'issue 6', 'GBP', 0.055, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(47, 12, 3, 'issue 7', 'USD', 0.056, 8400, 0);</v>
+        <v>insert into bond_position values(47, 12, 3, 'issue 7', 'USD', 0.056, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(48, 12, 4, 'issue 8', 'SGD', 0.057, 8300, 0);</v>
+        <v>insert into bond_position values(48, 12, 4, 'issue 8', 'SGD', 0.057, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(49, 13, 1, 'issue 9', 'HKD', 0.058, 8200, 0);</v>
+        <v>insert into bond_position values(49, 13, 1, 'issue 9', 'HKD', 0.058, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(50, 13, 2, 'issue 10', 'GBP', 0.059, 8100, 0);</v>
+        <v>insert into bond_position values(50, 13, 2, 'issue 10', 'GBP', 0.059, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(51, 13, 3, 'issue 11', 'USD', 0.01, 8000, 0);</v>
+        <v>insert into bond_position values(51, 13, 3, 'issue 11', 'USD', 0.01, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(52, 13, 4, 'issue 12', 'SGD', 0.011, 7900, 0);</v>
+        <v>insert into bond_position values(52, 13, 4, 'issue 12', 'SGD', 0.011, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(53, 14, 1, 'issue 13', 'HKD', 0.012, 7800, 0);</v>
+        <v>insert into bond_position values(53, 14, 1, 'issue 13', 'HKD', 0.012, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(54, 14, 2, 'issue 14', 'GBP', 0.013, 7700, 0);</v>
+        <v>insert into bond_position values(54, 14, 2, 'issue 14', 'GBP', 0.013, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(55, 14, 3, 'issue 15', 'USD', 0.014, 7600, 0);</v>
+        <v>insert into bond_position values(55, 14, 3, 'issue 15', 'USD', 0.014, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(56, 14, 4, 'issue 16', 'SGD', 0.015, 7500, 0);</v>
+        <v>insert into bond_position values(56, 14, 4, 'issue 16', 'SGD', 0.015, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(57, 15, 1, 'issue 17', 'HKD', 0.016, 7400, 0);</v>
+        <v>insert into bond_position values(57, 15, 1, 'issue 17', 'HKD', 0.016, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(58, 15, 2, 'issue 18', 'GBP', 0.017, 7300, 0);</v>
+        <v>insert into bond_position values(58, 15, 2, 'issue 18', 'GBP', 0.017, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(59, 15, 3, 'issue 19', 'USD', 0.018, 7200, 0);</v>
+        <v>insert into bond_position values(59, 15, 3, 'issue 19', 'USD', 0.018, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(60, 15, 4, 'issue 20', 'SGD', 0.019, 7100, 0);</v>
+        <v>insert into bond_position values(60, 15, 4, 'issue 20', 'SGD', 0.019, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(61, 16, 1, 'issue 1', 'HKD', 0.02, 10000, 0);</v>
+        <v>insert into bond_position values(61, 16, 1, 'issue 1', 'HKD', 0.02, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(62, 16, 2, 'issue 2', 'GBP', 0.021, 9900, 0);</v>
+        <v>insert into bond_position values(62, 16, 2, 'issue 2', 'GBP', 0.021, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(63, 16, 3, 'issue 3', 'USD', 0.022, 9800, 0);</v>
+        <v>insert into bond_position values(63, 16, 3, 'issue 3', 'USD', 0.022, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(64, 16, 4, 'issue 4', 'SGD', 0.023, 9700, 0);</v>
+        <v>insert into bond_position values(64, 16, 4, 'issue 4', 'SGD', 0.023, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bond_position values(65, 17, 1, 'issue 5', 'HKD', 0.024, 9600, 0);</v>
+        <v>insert into bond_position values(65, 17, 1, 'issue 5', 'HKD', 0.024, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -7253,8 +7253,8 @@
         <v>0</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K129" si="4">CONCATENATE("insert into bond_position values(", A66, ", ", B66, ", ", C66, ", '", D66, "', '", E66, "', ", F66, ", ", H66, ", ", I66, ");")</f>
-        <v>insert into bond_position values(66, 17, 2, 'issue 6', 'GBP', 0.025, 9500, 0);</v>
+        <f t="shared" ref="K66:K129" si="4">CONCATENATE("insert into bond_position values(", A66, ", ", B66, ", ", C66, ", '", D66, "', '", E66, "', ", F66, ", ", G66, ", ", H66, ", ", I66, ");")</f>
+        <v>insert into bond_position values(66, 17, 2, 'issue 6', 'GBP', 0.025, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="K67" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(67, 17, 3, 'issue 7', 'USD', 0.026, 9400, 0);</v>
+        <v>insert into bond_position values(67, 17, 3, 'issue 7', 'USD', 0.026, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="K68" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(68, 17, 4, 'issue 8', 'SGD', 0.027, 9300, 0);</v>
+        <v>insert into bond_position values(68, 17, 4, 'issue 8', 'SGD', 0.027, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="K69" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(69, 18, 1, 'issue 9', 'HKD', 0.028, 9200, 0);</v>
+        <v>insert into bond_position values(69, 18, 1, 'issue 9', 'HKD', 0.028, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="K70" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(70, 18, 2, 'issue 10', 'GBP', 0.029, 9100, 0);</v>
+        <v>insert into bond_position values(70, 18, 2, 'issue 10', 'GBP', 0.029, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="K71" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(71, 18, 3, 'issue 11', 'USD', 0.03, 9000, 0);</v>
+        <v>insert into bond_position values(71, 18, 3, 'issue 11', 'USD', 0.03, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="K72" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(72, 18, 4, 'issue 12', 'SGD', 0.031, 8900, 0);</v>
+        <v>insert into bond_position values(72, 18, 4, 'issue 12', 'SGD', 0.031, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="K73" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(73, 19, 1, 'issue 13', 'HKD', 0.032, 8800, 0);</v>
+        <v>insert into bond_position values(73, 19, 1, 'issue 13', 'HKD', 0.032, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="K74" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(74, 19, 2, 'issue 14', 'GBP', 0.033, 8700, 0);</v>
+        <v>insert into bond_position values(74, 19, 2, 'issue 14', 'GBP', 0.033, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="K75" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(75, 19, 3, 'issue 15', 'USD', 0.034, 8600, 0);</v>
+        <v>insert into bond_position values(75, 19, 3, 'issue 15', 'USD', 0.034, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="K76" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(76, 19, 4, 'issue 16', 'SGD', 0.035, 8500, 0);</v>
+        <v>insert into bond_position values(76, 19, 4, 'issue 16', 'SGD', 0.035, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="K77" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(77, 20, 1, 'issue 17', 'HKD', 0.036, 8400, 0);</v>
+        <v>insert into bond_position values(77, 20, 1, 'issue 17', 'HKD', 0.036, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="K78" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(78, 20, 2, 'issue 18', 'GBP', 0.037, 8300, 0);</v>
+        <v>insert into bond_position values(78, 20, 2, 'issue 18', 'GBP', 0.037, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="K79" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(79, 20, 3, 'issue 19', 'USD', 0.038, 8200, 0);</v>
+        <v>insert into bond_position values(79, 20, 3, 'issue 19', 'USD', 0.038, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="K80" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(80, 20, 4, 'issue 20', 'SGD', 0.039, 8100, 0);</v>
+        <v>insert into bond_position values(80, 20, 4, 'issue 20', 'SGD', 0.039, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="K81" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(81, 21, 1, 'issue 1', 'HKD', 0.04, 8000, 0);</v>
+        <v>insert into bond_position values(81, 21, 1, 'issue 1', 'HKD', 0.04, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="K82" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(82, 21, 2, 'issue 2', 'GBP', 0.041, 7900, 0);</v>
+        <v>insert into bond_position values(82, 21, 2, 'issue 2', 'GBP', 0.041, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(83, 21, 3, 'issue 3', 'USD', 0.042, 7800, 0);</v>
+        <v>insert into bond_position values(83, 21, 3, 'issue 3', 'USD', 0.042, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="K84" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(84, 21, 4, 'issue 4', 'SGD', 0.043, 7700, 0);</v>
+        <v>insert into bond_position values(84, 21, 4, 'issue 4', 'SGD', 0.043, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="K85" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(85, 22, 1, 'issue 5', 'HKD', 0.044, 7600, 0);</v>
+        <v>insert into bond_position values(85, 22, 1, 'issue 5', 'HKD', 0.044, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="K86" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(86, 22, 2, 'issue 6', 'GBP', 0.045, 7500, 0);</v>
+        <v>insert into bond_position values(86, 22, 2, 'issue 6', 'GBP', 0.045, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="K87" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(87, 22, 3, 'issue 7', 'USD', 0.046, 7400, 0);</v>
+        <v>insert into bond_position values(87, 22, 3, 'issue 7', 'USD', 0.046, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="K88" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(88, 22, 4, 'issue 8', 'SGD', 0.047, 7300, 0);</v>
+        <v>insert into bond_position values(88, 22, 4, 'issue 8', 'SGD', 0.047, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="K89" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(89, 23, 1, 'issue 9', 'HKD', 0.048, 7200, 0);</v>
+        <v>insert into bond_position values(89, 23, 1, 'issue 9', 'HKD', 0.048, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="K90" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(90, 23, 2, 'issue 10', 'GBP', 0.049, 7100, 0);</v>
+        <v>insert into bond_position values(90, 23, 2, 'issue 10', 'GBP', 0.049, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="K91" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(91, 23, 3, 'issue 11', 'USD', 0.05, 10000, 0);</v>
+        <v>insert into bond_position values(91, 23, 3, 'issue 11', 'USD', 0.05, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="K92" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(92, 23, 4, 'issue 12', 'SGD', 0.051, 9900, 0);</v>
+        <v>insert into bond_position values(92, 23, 4, 'issue 12', 'SGD', 0.051, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="K93" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(93, 24, 1, 'issue 13', 'HKD', 0.052, 9800, 0);</v>
+        <v>insert into bond_position values(93, 24, 1, 'issue 13', 'HKD', 0.052, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="K94" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(94, 24, 2, 'issue 14', 'GBP', 0.053, 9700, 0);</v>
+        <v>insert into bond_position values(94, 24, 2, 'issue 14', 'GBP', 0.053, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="K95" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(95, 24, 3, 'issue 15', 'USD', 0.054, 9600, 0);</v>
+        <v>insert into bond_position values(95, 24, 3, 'issue 15', 'USD', 0.054, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="K96" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(96, 24, 4, 'issue 16', 'SGD', 0.055, 9500, 0);</v>
+        <v>insert into bond_position values(96, 24, 4, 'issue 16', 'SGD', 0.055, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="K97" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(97, 25, 1, 'issue 17', 'HKD', 0.056, 9400, 0);</v>
+        <v>insert into bond_position values(97, 25, 1, 'issue 17', 'HKD', 0.056, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="K98" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(98, 25, 2, 'issue 18', 'GBP', 0.057, 9300, 0);</v>
+        <v>insert into bond_position values(98, 25, 2, 'issue 18', 'GBP', 0.057, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="K99" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(99, 25, 3, 'issue 19', 'USD', 0.058, 9200, 0);</v>
+        <v>insert into bond_position values(99, 25, 3, 'issue 19', 'USD', 0.058, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="K100" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(100, 25, 4, 'issue 20', 'SGD', 0.059, 9100, 0);</v>
+        <v>insert into bond_position values(100, 25, 4, 'issue 20', 'SGD', 0.059, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="K101" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(101, 26, 1, 'issue 1', 'HKD', 0.01, 9000, 0);</v>
+        <v>insert into bond_position values(101, 26, 1, 'issue 1', 'HKD', 0.01, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="K102" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(102, 26, 2, 'issue 2', 'GBP', 0.011, 8900, 0);</v>
+        <v>insert into bond_position values(102, 26, 2, 'issue 2', 'GBP', 0.011, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="K103" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(103, 26, 3, 'issue 3', 'USD', 0.012, 8800, 0);</v>
+        <v>insert into bond_position values(103, 26, 3, 'issue 3', 'USD', 0.012, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="K104" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(104, 26, 4, 'issue 4', 'SGD', 0.013, 8700, 0);</v>
+        <v>insert into bond_position values(104, 26, 4, 'issue 4', 'SGD', 0.013, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="K105" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(105, 27, 1, 'issue 5', 'HKD', 0.014, 8600, 0);</v>
+        <v>insert into bond_position values(105, 27, 1, 'issue 5', 'HKD', 0.014, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="K106" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(106, 27, 2, 'issue 6', 'GBP', 0.015, 8500, 0);</v>
+        <v>insert into bond_position values(106, 27, 2, 'issue 6', 'GBP', 0.015, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="K107" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(107, 27, 3, 'issue 7', 'USD', 0.016, 8400, 0);</v>
+        <v>insert into bond_position values(107, 27, 3, 'issue 7', 'USD', 0.016, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K108" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(108, 27, 4, 'issue 8', 'SGD', 0.017, 8300, 0);</v>
+        <v>insert into bond_position values(108, 27, 4, 'issue 8', 'SGD', 0.017, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(109, 28, 1, 'issue 9', 'HKD', 0.018, 8200, 0);</v>
+        <v>insert into bond_position values(109, 28, 1, 'issue 9', 'HKD', 0.018, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(110, 28, 2, 'issue 10', 'GBP', 0.019, 8100, 0);</v>
+        <v>insert into bond_position values(110, 28, 2, 'issue 10', 'GBP', 0.019, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="K111" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(111, 28, 3, 'issue 11', 'USD', 0.02, 8000, 0);</v>
+        <v>insert into bond_position values(111, 28, 3, 'issue 11', 'USD', 0.02, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="K112" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(112, 28, 4, 'issue 12', 'SGD', 0.021, 7900, 0);</v>
+        <v>insert into bond_position values(112, 28, 4, 'issue 12', 'SGD', 0.021, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="K113" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(113, 29, 1, 'issue 13', 'HKD', 0.022, 7800, 0);</v>
+        <v>insert into bond_position values(113, 29, 1, 'issue 13', 'HKD', 0.022, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="K114" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(114, 29, 2, 'issue 14', 'GBP', 0.023, 7700, 0);</v>
+        <v>insert into bond_position values(114, 29, 2, 'issue 14', 'GBP', 0.023, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="K115" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(115, 29, 3, 'issue 15', 'USD', 0.024, 7600, 0);</v>
+        <v>insert into bond_position values(115, 29, 3, 'issue 15', 'USD', 0.024, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="K116" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(116, 29, 4, 'issue 16', 'SGD', 0.025, 7500, 0);</v>
+        <v>insert into bond_position values(116, 29, 4, 'issue 16', 'SGD', 0.025, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="K117" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(117, 30, 1, 'issue 17', 'HKD', 0.026, 7400, 0);</v>
+        <v>insert into bond_position values(117, 30, 1, 'issue 17', 'HKD', 0.026, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="K118" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(118, 30, 2, 'issue 18', 'GBP', 0.027, 7300, 0);</v>
+        <v>insert into bond_position values(118, 30, 2, 'issue 18', 'GBP', 0.027, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="K119" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(119, 30, 3, 'issue 19', 'USD', 0.028, 7200, 0);</v>
+        <v>insert into bond_position values(119, 30, 3, 'issue 19', 'USD', 0.028, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="K120" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(120, 30, 4, 'issue 20', 'SGD', 0.029, 7100, 0);</v>
+        <v>insert into bond_position values(120, 30, 4, 'issue 20', 'SGD', 0.029, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="K121" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(121, 31, 1, 'issue 1', 'HKD', 0.03, 10000, 0);</v>
+        <v>insert into bond_position values(121, 31, 1, 'issue 1', 'HKD', 0.03, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="K122" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(122, 31, 2, 'issue 2', 'GBP', 0.031, 9900, 0);</v>
+        <v>insert into bond_position values(122, 31, 2, 'issue 2', 'GBP', 0.031, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="K123" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(123, 31, 3, 'issue 3', 'USD', 0.032, 9800, 0);</v>
+        <v>insert into bond_position values(123, 31, 3, 'issue 3', 'USD', 0.032, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="K124" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(124, 31, 4, 'issue 4', 'SGD', 0.033, 9700, 0);</v>
+        <v>insert into bond_position values(124, 31, 4, 'issue 4', 'SGD', 0.033, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="K125" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(125, 32, 1, 'issue 5', 'HKD', 0.034, 9600, 0);</v>
+        <v>insert into bond_position values(125, 32, 1, 'issue 5', 'HKD', 0.034, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="K126" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(126, 32, 2, 'issue 6', 'GBP', 0.035, 9500, 0);</v>
+        <v>insert into bond_position values(126, 32, 2, 'issue 6', 'GBP', 0.035, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="K127" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(127, 32, 3, 'issue 7', 'USD', 0.036, 9400, 0);</v>
+        <v>insert into bond_position values(127, 32, 3, 'issue 7', 'USD', 0.036, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="K128" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(128, 32, 4, 'issue 8', 'SGD', 0.037, 9300, 0);</v>
+        <v>insert into bond_position values(128, 32, 4, 'issue 8', 'SGD', 0.037, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="K129" t="str">
         <f t="shared" si="4"/>
-        <v>insert into bond_position values(129, 33, 1, 'issue 9', 'HKD', 0.038, 9200, 0);</v>
+        <v>insert into bond_position values(129, 33, 1, 'issue 9', 'HKD', 0.038, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -9429,8 +9429,8 @@
         <v>0</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" ref="K130:K193" si="6">CONCATENATE("insert into bond_position values(", A130, ", ", B130, ", ", C130, ", '", D130, "', '", E130, "', ", F130, ", ", H130, ", ", I130, ");")</f>
-        <v>insert into bond_position values(130, 33, 2, 'issue 10', 'GBP', 0.039, 9100, 0);</v>
+        <f t="shared" ref="K130:K193" si="6">CONCATENATE("insert into bond_position values(", A130, ", ", B130, ", ", C130, ", '", D130, "', '", E130, "', ", F130, ", ", G130, ", ", H130, ", ", I130, ");")</f>
+        <v>insert into bond_position values(130, 33, 2, 'issue 10', 'GBP', 0.039, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="K131" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(131, 33, 3, 'issue 11', 'USD', 0.04, 9000, 0);</v>
+        <v>insert into bond_position values(131, 33, 3, 'issue 11', 'USD', 0.04, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="K132" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(132, 33, 4, 'issue 12', 'SGD', 0.041, 8900, 0);</v>
+        <v>insert into bond_position values(132, 33, 4, 'issue 12', 'SGD', 0.041, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="K133" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(133, 34, 1, 'issue 13', 'HKD', 0.042, 8800, 0);</v>
+        <v>insert into bond_position values(133, 34, 1, 'issue 13', 'HKD', 0.042, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="K134" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(134, 34, 2, 'issue 14', 'GBP', 0.043, 8700, 0);</v>
+        <v>insert into bond_position values(134, 34, 2, 'issue 14', 'GBP', 0.043, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="K135" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(135, 34, 3, 'issue 15', 'USD', 0.044, 8600, 0);</v>
+        <v>insert into bond_position values(135, 34, 3, 'issue 15', 'USD', 0.044, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="K136" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(136, 34, 4, 'issue 16', 'SGD', 0.045, 8500, 0);</v>
+        <v>insert into bond_position values(136, 34, 4, 'issue 16', 'SGD', 0.045, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="K137" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(137, 35, 1, 'issue 17', 'HKD', 0.046, 8400, 0);</v>
+        <v>insert into bond_position values(137, 35, 1, 'issue 17', 'HKD', 0.046, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="K138" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(138, 35, 2, 'issue 18', 'GBP', 0.047, 8300, 0);</v>
+        <v>insert into bond_position values(138, 35, 2, 'issue 18', 'GBP', 0.047, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="K139" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(139, 35, 3, 'issue 19', 'USD', 0.048, 8200, 0);</v>
+        <v>insert into bond_position values(139, 35, 3, 'issue 19', 'USD', 0.048, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="K140" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(140, 35, 4, 'issue 20', 'SGD', 0.049, 8100, 0);</v>
+        <v>insert into bond_position values(140, 35, 4, 'issue 20', 'SGD', 0.049, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="K141" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(141, 36, 1, 'issue 1', 'HKD', 0.05, 8000, 0);</v>
+        <v>insert into bond_position values(141, 36, 1, 'issue 1', 'HKD', 0.05, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="K142" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(142, 36, 2, 'issue 2', 'GBP', 0.051, 7900, 0);</v>
+        <v>insert into bond_position values(142, 36, 2, 'issue 2', 'GBP', 0.051, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="K143" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(143, 36, 3, 'issue 3', 'USD', 0.052, 7800, 0);</v>
+        <v>insert into bond_position values(143, 36, 3, 'issue 3', 'USD', 0.052, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="K144" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(144, 36, 4, 'issue 4', 'SGD', 0.053, 7700, 0);</v>
+        <v>insert into bond_position values(144, 36, 4, 'issue 4', 'SGD', 0.053, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="K145" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(145, 37, 1, 'issue 5', 'HKD', 0.054, 7600, 0);</v>
+        <v>insert into bond_position values(145, 37, 1, 'issue 5', 'HKD', 0.054, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="K146" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(146, 37, 2, 'issue 6', 'GBP', 0.055, 7500, 0);</v>
+        <v>insert into bond_position values(146, 37, 2, 'issue 6', 'GBP', 0.055, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="K147" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(147, 37, 3, 'issue 7', 'USD', 0.056, 7400, 0);</v>
+        <v>insert into bond_position values(147, 37, 3, 'issue 7', 'USD', 0.056, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="K148" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(148, 37, 4, 'issue 8', 'SGD', 0.057, 7300, 0);</v>
+        <v>insert into bond_position values(148, 37, 4, 'issue 8', 'SGD', 0.057, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="K149" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(149, 38, 1, 'issue 9', 'HKD', 0.058, 7200, 0);</v>
+        <v>insert into bond_position values(149, 38, 1, 'issue 9', 'HKD', 0.058, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="K150" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(150, 38, 2, 'issue 10', 'GBP', 0.059, 7100, 0);</v>
+        <v>insert into bond_position values(150, 38, 2, 'issue 10', 'GBP', 0.059, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="K151" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(151, 38, 3, 'issue 11', 'USD', 0.01, 10000, 0);</v>
+        <v>insert into bond_position values(151, 38, 3, 'issue 11', 'USD', 0.01, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="K152" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(152, 38, 4, 'issue 12', 'SGD', 0.011, 9900, 0);</v>
+        <v>insert into bond_position values(152, 38, 4, 'issue 12', 'SGD', 0.011, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="K153" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(153, 39, 1, 'issue 13', 'HKD', 0.012, 9800, 0);</v>
+        <v>insert into bond_position values(153, 39, 1, 'issue 13', 'HKD', 0.012, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="K154" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(154, 39, 2, 'issue 14', 'GBP', 0.013, 9700, 0);</v>
+        <v>insert into bond_position values(154, 39, 2, 'issue 14', 'GBP', 0.013, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="K155" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(155, 39, 3, 'issue 15', 'USD', 0.014, 9600, 0);</v>
+        <v>insert into bond_position values(155, 39, 3, 'issue 15', 'USD', 0.014, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -10314,7 +10314,7 @@
       </c>
       <c r="K156" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(156, 39, 4, 'issue 16', 'SGD', 0.015, 9500, 0);</v>
+        <v>insert into bond_position values(156, 39, 4, 'issue 16', 'SGD', 0.015, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="K157" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(157, 40, 1, 'issue 17', 'HKD', 0.016, 9400, 0);</v>
+        <v>insert into bond_position values(157, 40, 1, 'issue 17', 'HKD', 0.016, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="K158" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(158, 40, 2, 'issue 18', 'GBP', 0.017, 9300, 0);</v>
+        <v>insert into bond_position values(158, 40, 2, 'issue 18', 'GBP', 0.017, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="K159" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(159, 40, 3, 'issue 19', 'USD', 0.018, 9200, 0);</v>
+        <v>insert into bond_position values(159, 40, 3, 'issue 19', 'USD', 0.018, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="K160" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(160, 40, 4, 'issue 20', 'SGD', 0.019, 9100, 0);</v>
+        <v>insert into bond_position values(160, 40, 4, 'issue 20', 'SGD', 0.019, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="K161" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(161, 41, 1, 'issue 1', 'HKD', 0.02, 9000, 0);</v>
+        <v>insert into bond_position values(161, 41, 1, 'issue 1', 'HKD', 0.02, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="K162" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(162, 41, 2, 'issue 2', 'GBP', 0.021, 8900, 0);</v>
+        <v>insert into bond_position values(162, 41, 2, 'issue 2', 'GBP', 0.021, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="K163" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(163, 41, 3, 'issue 3', 'USD', 0.022, 8800, 0);</v>
+        <v>insert into bond_position values(163, 41, 3, 'issue 3', 'USD', 0.022, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="K164" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(164, 41, 4, 'issue 4', 'SGD', 0.023, 8700, 0);</v>
+        <v>insert into bond_position values(164, 41, 4, 'issue 4', 'SGD', 0.023, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="K165" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(165, 42, 1, 'issue 5', 'HKD', 0.024, 8600, 0);</v>
+        <v>insert into bond_position values(165, 42, 1, 'issue 5', 'HKD', 0.024, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="K166" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(166, 42, 2, 'issue 6', 'GBP', 0.025, 8500, 0);</v>
+        <v>insert into bond_position values(166, 42, 2, 'issue 6', 'GBP', 0.025, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="K167" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(167, 42, 3, 'issue 7', 'USD', 0.026, 8400, 0);</v>
+        <v>insert into bond_position values(167, 42, 3, 'issue 7', 'USD', 0.026, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="K168" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(168, 42, 4, 'issue 8', 'SGD', 0.027, 8300, 0);</v>
+        <v>insert into bond_position values(168, 42, 4, 'issue 8', 'SGD', 0.027, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="K169" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(169, 43, 1, 'issue 9', 'HKD', 0.028, 8200, 0);</v>
+        <v>insert into bond_position values(169, 43, 1, 'issue 9', 'HKD', 0.028, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="K170" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(170, 43, 2, 'issue 10', 'GBP', 0.029, 8100, 0);</v>
+        <v>insert into bond_position values(170, 43, 2, 'issue 10', 'GBP', 0.029, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="K171" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(171, 43, 3, 'issue 11', 'USD', 0.03, 8000, 0);</v>
+        <v>insert into bond_position values(171, 43, 3, 'issue 11', 'USD', 0.03, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="K172" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(172, 43, 4, 'issue 12', 'SGD', 0.031, 7900, 0);</v>
+        <v>insert into bond_position values(172, 43, 4, 'issue 12', 'SGD', 0.031, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="K173" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(173, 44, 1, 'issue 13', 'HKD', 0.032, 7800, 0);</v>
+        <v>insert into bond_position values(173, 44, 1, 'issue 13', 'HKD', 0.032, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="K174" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(174, 44, 2, 'issue 14', 'GBP', 0.033, 7700, 0);</v>
+        <v>insert into bond_position values(174, 44, 2, 'issue 14', 'GBP', 0.033, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -10960,7 +10960,7 @@
       </c>
       <c r="K175" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(175, 44, 3, 'issue 15', 'USD', 0.034, 7600, 0);</v>
+        <v>insert into bond_position values(175, 44, 3, 'issue 15', 'USD', 0.034, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="K176" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(176, 44, 4, 'issue 16', 'SGD', 0.035, 7500, 0);</v>
+        <v>insert into bond_position values(176, 44, 4, 'issue 16', 'SGD', 0.035, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="K177" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(177, 45, 1, 'issue 17', 'HKD', 0.036, 7400, 0);</v>
+        <v>insert into bond_position values(177, 45, 1, 'issue 17', 'HKD', 0.036, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="K178" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(178, 45, 2, 'issue 18', 'GBP', 0.037, 7300, 0);</v>
+        <v>insert into bond_position values(178, 45, 2, 'issue 18', 'GBP', 0.037, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="K179" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(179, 45, 3, 'issue 19', 'USD', 0.038, 7200, 0);</v>
+        <v>insert into bond_position values(179, 45, 3, 'issue 19', 'USD', 0.038, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="K180" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(180, 45, 4, 'issue 20', 'SGD', 0.039, 7100, 0);</v>
+        <v>insert into bond_position values(180, 45, 4, 'issue 20', 'SGD', 0.039, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="K181" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(181, 46, 1, 'issue 1', 'HKD', 0.04, 10000, 0);</v>
+        <v>insert into bond_position values(181, 46, 1, 'issue 1', 'HKD', 0.04, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="K182" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(182, 46, 2, 'issue 2', 'GBP', 0.041, 9900, 0);</v>
+        <v>insert into bond_position values(182, 46, 2, 'issue 2', 'GBP', 0.041, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="K183" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(183, 46, 3, 'issue 3', 'USD', 0.042, 9800, 0);</v>
+        <v>insert into bond_position values(183, 46, 3, 'issue 3', 'USD', 0.042, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="K184" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(184, 46, 4, 'issue 4', 'SGD', 0.043, 9700, 0);</v>
+        <v>insert into bond_position values(184, 46, 4, 'issue 4', 'SGD', 0.043, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="K185" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(185, 47, 1, 'issue 5', 'HKD', 0.044, 9600, 0);</v>
+        <v>insert into bond_position values(185, 47, 1, 'issue 5', 'HKD', 0.044, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="K186" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(186, 47, 2, 'issue 6', 'GBP', 0.045, 9500, 0);</v>
+        <v>insert into bond_position values(186, 47, 2, 'issue 6', 'GBP', 0.045, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="K187" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(187, 47, 3, 'issue 7', 'USD', 0.046, 9400, 0);</v>
+        <v>insert into bond_position values(187, 47, 3, 'issue 7', 'USD', 0.046, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="K188" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(188, 47, 4, 'issue 8', 'SGD', 0.047, 9300, 0);</v>
+        <v>insert into bond_position values(188, 47, 4, 'issue 8', 'SGD', 0.047, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -11436,7 +11436,7 @@
       </c>
       <c r="K189" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(189, 48, 1, 'issue 9', 'HKD', 0.048, 9200, 0);</v>
+        <v>insert into bond_position values(189, 48, 1, 'issue 9', 'HKD', 0.048, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="K190" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(190, 48, 2, 'issue 10', 'GBP', 0.049, 9100, 0);</v>
+        <v>insert into bond_position values(190, 48, 2, 'issue 10', 'GBP', 0.049, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="K191" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(191, 48, 3, 'issue 11', 'USD', 0.05, 9000, 0);</v>
+        <v>insert into bond_position values(191, 48, 3, 'issue 11', 'USD', 0.05, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="K192" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(192, 48, 4, 'issue 12', 'SGD', 0.051, 8900, 0);</v>
+        <v>insert into bond_position values(192, 48, 4, 'issue 12', 'SGD', 0.051, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="K193" t="str">
         <f t="shared" si="6"/>
-        <v>insert into bond_position values(193, 49, 1, 'issue 13', 'HKD', 0.052, 8800, 0);</v>
+        <v>insert into bond_position values(193, 49, 1, 'issue 13', 'HKD', 0.052, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -11605,8 +11605,8 @@
         <v>0</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" ref="K194:K257" si="8">CONCATENATE("insert into bond_position values(", A194, ", ", B194, ", ", C194, ", '", D194, "', '", E194, "', ", F194, ", ", H194, ", ", I194, ");")</f>
-        <v>insert into bond_position values(194, 49, 2, 'issue 14', 'GBP', 0.053, 8700, 0);</v>
+        <f t="shared" ref="K194:K257" si="8">CONCATENATE("insert into bond_position values(", A194, ", ", B194, ", ", C194, ", '", D194, "', '", E194, "', ", F194, ", ", G194, ", ", H194, ", ", I194, ");")</f>
+        <v>insert into bond_position values(194, 49, 2, 'issue 14', 'GBP', 0.053, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -11640,7 +11640,7 @@
       </c>
       <c r="K195" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(195, 49, 3, 'issue 15', 'USD', 0.054, 8600, 0);</v>
+        <v>insert into bond_position values(195, 49, 3, 'issue 15', 'USD', 0.054, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="K196" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(196, 49, 4, 'issue 16', 'SGD', 0.055, 8500, 0);</v>
+        <v>insert into bond_position values(196, 49, 4, 'issue 16', 'SGD', 0.055, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="K197" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(197, 50, 1, 'issue 17', 'HKD', 0.056, 8400, 0);</v>
+        <v>insert into bond_position values(197, 50, 1, 'issue 17', 'HKD', 0.056, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="K198" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(198, 50, 2, 'issue 18', 'GBP', 0.057, 8300, 0);</v>
+        <v>insert into bond_position values(198, 50, 2, 'issue 18', 'GBP', 0.057, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="K199" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(199, 50, 3, 'issue 19', 'USD', 0.058, 8200, 0);</v>
+        <v>insert into bond_position values(199, 50, 3, 'issue 19', 'USD', 0.058, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="K200" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(200, 50, 4, 'issue 20', 'SGD', 0.059, 8100, 0);</v>
+        <v>insert into bond_position values(200, 50, 4, 'issue 20', 'SGD', 0.059, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="K201" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(201, 51, 1, 'issue 1', 'HKD', 0.01, 8000, 0);</v>
+        <v>insert into bond_position values(201, 51, 1, 'issue 1', 'HKD', 0.01, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="K202" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(202, 51, 2, 'issue 2', 'GBP', 0.011, 7900, 0);</v>
+        <v>insert into bond_position values(202, 51, 2, 'issue 2', 'GBP', 0.011, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="K203" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(203, 51, 3, 'issue 3', 'USD', 0.012, 7800, 0);</v>
+        <v>insert into bond_position values(203, 51, 3, 'issue 3', 'USD', 0.012, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="K204" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(204, 51, 4, 'issue 4', 'SGD', 0.013, 7700, 0);</v>
+        <v>insert into bond_position values(204, 51, 4, 'issue 4', 'SGD', 0.013, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="K205" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(205, 52, 1, 'issue 5', 'HKD', 0.014, 7600, 0);</v>
+        <v>insert into bond_position values(205, 52, 1, 'issue 5', 'HKD', 0.014, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="K206" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(206, 52, 2, 'issue 6', 'GBP', 0.015, 7500, 0);</v>
+        <v>insert into bond_position values(206, 52, 2, 'issue 6', 'GBP', 0.015, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="K207" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(207, 52, 3, 'issue 7', 'USD', 0.016, 7400, 0);</v>
+        <v>insert into bond_position values(207, 52, 3, 'issue 7', 'USD', 0.016, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="K208" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(208, 52, 4, 'issue 8', 'SGD', 0.017, 7300, 0);</v>
+        <v>insert into bond_position values(208, 52, 4, 'issue 8', 'SGD', 0.017, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="K209" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(209, 53, 1, 'issue 9', 'HKD', 0.018, 7200, 0);</v>
+        <v>insert into bond_position values(209, 53, 1, 'issue 9', 'HKD', 0.018, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="K210" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(210, 53, 2, 'issue 10', 'GBP', 0.019, 7100, 0);</v>
+        <v>insert into bond_position values(210, 53, 2, 'issue 10', 'GBP', 0.019, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="K211" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(211, 53, 3, 'issue 11', 'USD', 0.02, 10000, 0);</v>
+        <v>insert into bond_position values(211, 53, 3, 'issue 11', 'USD', 0.02, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="K212" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(212, 53, 4, 'issue 12', 'SGD', 0.021, 9900, 0);</v>
+        <v>insert into bond_position values(212, 53, 4, 'issue 12', 'SGD', 0.021, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="K213" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(213, 54, 1, 'issue 13', 'HKD', 0.022, 9800, 0);</v>
+        <v>insert into bond_position values(213, 54, 1, 'issue 13', 'HKD', 0.022, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="K214" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(214, 54, 2, 'issue 14', 'GBP', 0.023, 9700, 0);</v>
+        <v>insert into bond_position values(214, 54, 2, 'issue 14', 'GBP', 0.023, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="K215" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(215, 54, 3, 'issue 15', 'USD', 0.024, 9600, 0);</v>
+        <v>insert into bond_position values(215, 54, 3, 'issue 15', 'USD', 0.024, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="K216" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(216, 54, 4, 'issue 16', 'SGD', 0.025, 9500, 0);</v>
+        <v>insert into bond_position values(216, 54, 4, 'issue 16', 'SGD', 0.025, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="K217" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(217, 55, 1, 'issue 17', 'HKD', 0.026, 9400, 0);</v>
+        <v>insert into bond_position values(217, 55, 1, 'issue 17', 'HKD', 0.026, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="K218" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(218, 55, 2, 'issue 18', 'GBP', 0.027, 9300, 0);</v>
+        <v>insert into bond_position values(218, 55, 2, 'issue 18', 'GBP', 0.027, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="K219" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(219, 55, 3, 'issue 19', 'USD', 0.028, 9200, 0);</v>
+        <v>insert into bond_position values(219, 55, 3, 'issue 19', 'USD', 0.028, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="K220" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(220, 55, 4, 'issue 20', 'SGD', 0.029, 9100, 0);</v>
+        <v>insert into bond_position values(220, 55, 4, 'issue 20', 'SGD', 0.029, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -12524,7 +12524,7 @@
       </c>
       <c r="K221" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(221, 56, 1, 'issue 1', 'HKD', 0.03, 9000, 0);</v>
+        <v>insert into bond_position values(221, 56, 1, 'issue 1', 'HKD', 0.03, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="K222" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(222, 56, 2, 'issue 2', 'GBP', 0.031, 8900, 0);</v>
+        <v>insert into bond_position values(222, 56, 2, 'issue 2', 'GBP', 0.031, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="K223" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(223, 56, 3, 'issue 3', 'USD', 0.032, 8800, 0);</v>
+        <v>insert into bond_position values(223, 56, 3, 'issue 3', 'USD', 0.032, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="K224" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(224, 56, 4, 'issue 4', 'SGD', 0.033, 8700, 0);</v>
+        <v>insert into bond_position values(224, 56, 4, 'issue 4', 'SGD', 0.033, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="K225" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(225, 57, 1, 'issue 5', 'HKD', 0.034, 8600, 0);</v>
+        <v>insert into bond_position values(225, 57, 1, 'issue 5', 'HKD', 0.034, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="K226" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(226, 57, 2, 'issue 6', 'GBP', 0.035, 8500, 0);</v>
+        <v>insert into bond_position values(226, 57, 2, 'issue 6', 'GBP', 0.035, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="K227" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(227, 57, 3, 'issue 7', 'USD', 0.036, 8400, 0);</v>
+        <v>insert into bond_position values(227, 57, 3, 'issue 7', 'USD', 0.036, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="K228" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(228, 57, 4, 'issue 8', 'SGD', 0.037, 8300, 0);</v>
+        <v>insert into bond_position values(228, 57, 4, 'issue 8', 'SGD', 0.037, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="K229" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(229, 58, 1, 'issue 9', 'HKD', 0.038, 8200, 0);</v>
+        <v>insert into bond_position values(229, 58, 1, 'issue 9', 'HKD', 0.038, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="K230" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(230, 58, 2, 'issue 10', 'GBP', 0.039, 8100, 0);</v>
+        <v>insert into bond_position values(230, 58, 2, 'issue 10', 'GBP', 0.039, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
       </c>
       <c r="K231" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(231, 58, 3, 'issue 11', 'USD', 0.04, 8000, 0);</v>
+        <v>insert into bond_position values(231, 58, 3, 'issue 11', 'USD', 0.04, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -12898,7 +12898,7 @@
       </c>
       <c r="K232" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(232, 58, 4, 'issue 12', 'SGD', 0.041, 7900, 0);</v>
+        <v>insert into bond_position values(232, 58, 4, 'issue 12', 'SGD', 0.041, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="K233" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(233, 59, 1, 'issue 13', 'HKD', 0.042, 7800, 0);</v>
+        <v>insert into bond_position values(233, 59, 1, 'issue 13', 'HKD', 0.042, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="K234" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(234, 59, 2, 'issue 14', 'GBP', 0.043, 7700, 0);</v>
+        <v>insert into bond_position values(234, 59, 2, 'issue 14', 'GBP', 0.043, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="K235" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(235, 59, 3, 'issue 15', 'USD', 0.044, 7600, 0);</v>
+        <v>insert into bond_position values(235, 59, 3, 'issue 15', 'USD', 0.044, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="K236" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(236, 59, 4, 'issue 16', 'SGD', 0.045, 7500, 0);</v>
+        <v>insert into bond_position values(236, 59, 4, 'issue 16', 'SGD', 0.045, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="K237" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(237, 60, 1, 'issue 17', 'HKD', 0.046, 7400, 0);</v>
+        <v>insert into bond_position values(237, 60, 1, 'issue 17', 'HKD', 0.046, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="K238" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(238, 60, 2, 'issue 18', 'GBP', 0.047, 7300, 0);</v>
+        <v>insert into bond_position values(238, 60, 2, 'issue 18', 'GBP', 0.047, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="K239" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(239, 60, 3, 'issue 19', 'USD', 0.048, 7200, 0);</v>
+        <v>insert into bond_position values(239, 60, 3, 'issue 19', 'USD', 0.048, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="K240" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(240, 60, 4, 'issue 20', 'SGD', 0.049, 7100, 0);</v>
+        <v>insert into bond_position values(240, 60, 4, 'issue 20', 'SGD', 0.049, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="K241" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(241, 61, 1, 'issue 1', 'HKD', 0.05, 10000, 0);</v>
+        <v>insert into bond_position values(241, 61, 1, 'issue 1', 'HKD', 0.05, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
@@ -13238,7 +13238,7 @@
       </c>
       <c r="K242" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(242, 61, 2, 'issue 2', 'GBP', 0.051, 9900, 0);</v>
+        <v>insert into bond_position values(242, 61, 2, 'issue 2', 'GBP', 0.051, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="K243" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(243, 61, 3, 'issue 3', 'USD', 0.052, 9800, 0);</v>
+        <v>insert into bond_position values(243, 61, 3, 'issue 3', 'USD', 0.052, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="K244" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(244, 61, 4, 'issue 4', 'SGD', 0.053, 9700, 0);</v>
+        <v>insert into bond_position values(244, 61, 4, 'issue 4', 'SGD', 0.053, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="K245" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(245, 62, 1, 'issue 5', 'HKD', 0.054, 9600, 0);</v>
+        <v>insert into bond_position values(245, 62, 1, 'issue 5', 'HKD', 0.054, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="K246" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(246, 62, 2, 'issue 6', 'GBP', 0.055, 9500, 0);</v>
+        <v>insert into bond_position values(246, 62, 2, 'issue 6', 'GBP', 0.055, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="K247" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(247, 62, 3, 'issue 7', 'USD', 0.056, 9400, 0);</v>
+        <v>insert into bond_position values(247, 62, 3, 'issue 7', 'USD', 0.056, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -13442,7 +13442,7 @@
       </c>
       <c r="K248" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(248, 62, 4, 'issue 8', 'SGD', 0.057, 9300, 0);</v>
+        <v>insert into bond_position values(248, 62, 4, 'issue 8', 'SGD', 0.057, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="K249" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(249, 63, 1, 'issue 9', 'HKD', 0.058, 9200, 0);</v>
+        <v>insert into bond_position values(249, 63, 1, 'issue 9', 'HKD', 0.058, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="K250" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(250, 63, 2, 'issue 10', 'GBP', 0.059, 9100, 0);</v>
+        <v>insert into bond_position values(250, 63, 2, 'issue 10', 'GBP', 0.059, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="K251" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(251, 63, 3, 'issue 11', 'USD', 0.01, 9000, 0);</v>
+        <v>insert into bond_position values(251, 63, 3, 'issue 11', 'USD', 0.01, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="K252" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(252, 63, 4, 'issue 12', 'SGD', 0.011, 8900, 0);</v>
+        <v>insert into bond_position values(252, 63, 4, 'issue 12', 'SGD', 0.011, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="K253" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(253, 64, 1, 'issue 13', 'HKD', 0.012, 8800, 0);</v>
+        <v>insert into bond_position values(253, 64, 1, 'issue 13', 'HKD', 0.012, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="K254" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(254, 64, 2, 'issue 14', 'GBP', 0.013, 8700, 0);</v>
+        <v>insert into bond_position values(254, 64, 2, 'issue 14', 'GBP', 0.013, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="K255" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(255, 64, 3, 'issue 15', 'USD', 0.014, 8600, 0);</v>
+        <v>insert into bond_position values(255, 64, 3, 'issue 15', 'USD', 0.014, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="K256" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(256, 64, 4, 'issue 16', 'SGD', 0.015, 8500, 0);</v>
+        <v>insert into bond_position values(256, 64, 4, 'issue 16', 'SGD', 0.015, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="K257" t="str">
         <f t="shared" si="8"/>
-        <v>insert into bond_position values(257, 65, 1, 'issue 17', 'HKD', 0.016, 8400, 0);</v>
+        <v>insert into bond_position values(257, 65, 1, 'issue 17', 'HKD', 0.016, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -13781,8 +13781,8 @@
         <v>0</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" ref="K258:K321" si="10">CONCATENATE("insert into bond_position values(", A258, ", ", B258, ", ", C258, ", '", D258, "', '", E258, "', ", F258, ", ", H258, ", ", I258, ");")</f>
-        <v>insert into bond_position values(258, 65, 2, 'issue 18', 'GBP', 0.017, 8300, 0);</v>
+        <f t="shared" ref="K258:K321" si="10">CONCATENATE("insert into bond_position values(", A258, ", ", B258, ", ", C258, ", '", D258, "', '", E258, "', ", F258, ", ", G258, ", ", H258, ", ", I258, ");")</f>
+        <v>insert into bond_position values(258, 65, 2, 'issue 18', 'GBP', 0.017, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="K259" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(259, 65, 3, 'issue 19', 'USD', 0.018, 8200, 0);</v>
+        <v>insert into bond_position values(259, 65, 3, 'issue 19', 'USD', 0.018, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="K260" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(260, 65, 4, 'issue 20', 'SGD', 0.019, 8100, 0);</v>
+        <v>insert into bond_position values(260, 65, 4, 'issue 20', 'SGD', 0.019, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="K261" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(261, 66, 1, 'issue 1', 'HKD', 0.02, 8000, 0);</v>
+        <v>insert into bond_position values(261, 66, 1, 'issue 1', 'HKD', 0.02, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="K262" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(262, 66, 2, 'issue 2', 'GBP', 0.021, 7900, 0);</v>
+        <v>insert into bond_position values(262, 66, 2, 'issue 2', 'GBP', 0.021, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="K263" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(263, 66, 3, 'issue 3', 'USD', 0.022, 7800, 0);</v>
+        <v>insert into bond_position values(263, 66, 3, 'issue 3', 'USD', 0.022, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="K264" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(264, 66, 4, 'issue 4', 'SGD', 0.023, 7700, 0);</v>
+        <v>insert into bond_position values(264, 66, 4, 'issue 4', 'SGD', 0.023, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="K265" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(265, 67, 1, 'issue 5', 'HKD', 0.024, 7600, 0);</v>
+        <v>insert into bond_position values(265, 67, 1, 'issue 5', 'HKD', 0.024, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -14054,7 +14054,7 @@
       </c>
       <c r="K266" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(266, 67, 2, 'issue 6', 'GBP', 0.025, 7500, 0);</v>
+        <v>insert into bond_position values(266, 67, 2, 'issue 6', 'GBP', 0.025, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="K267" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(267, 67, 3, 'issue 7', 'USD', 0.026, 7400, 0);</v>
+        <v>insert into bond_position values(267, 67, 3, 'issue 7', 'USD', 0.026, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="K268" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(268, 67, 4, 'issue 8', 'SGD', 0.027, 7300, 0);</v>
+        <v>insert into bond_position values(268, 67, 4, 'issue 8', 'SGD', 0.027, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="K269" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(269, 68, 1, 'issue 9', 'HKD', 0.028, 7200, 0);</v>
+        <v>insert into bond_position values(269, 68, 1, 'issue 9', 'HKD', 0.028, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="K270" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(270, 68, 2, 'issue 10', 'GBP', 0.029, 7100, 0);</v>
+        <v>insert into bond_position values(270, 68, 2, 'issue 10', 'GBP', 0.029, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="K271" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(271, 68, 3, 'issue 11', 'USD', 0.03, 10000, 0);</v>
+        <v>insert into bond_position values(271, 68, 3, 'issue 11', 'USD', 0.03, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="K272" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(272, 68, 4, 'issue 12', 'SGD', 0.031, 9900, 0);</v>
+        <v>insert into bond_position values(272, 68, 4, 'issue 12', 'SGD', 0.031, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="K273" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(273, 69, 1, 'issue 13', 'HKD', 0.032, 9800, 0);</v>
+        <v>insert into bond_position values(273, 69, 1, 'issue 13', 'HKD', 0.032, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="K274" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(274, 69, 2, 'issue 14', 'GBP', 0.033, 9700, 0);</v>
+        <v>insert into bond_position values(274, 69, 2, 'issue 14', 'GBP', 0.033, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="K275" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(275, 69, 3, 'issue 15', 'USD', 0.034, 9600, 0);</v>
+        <v>insert into bond_position values(275, 69, 3, 'issue 15', 'USD', 0.034, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="K276" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(276, 69, 4, 'issue 16', 'SGD', 0.035, 9500, 0);</v>
+        <v>insert into bond_position values(276, 69, 4, 'issue 16', 'SGD', 0.035, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="K277" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(277, 70, 1, 'issue 17', 'HKD', 0.036, 9400, 0);</v>
+        <v>insert into bond_position values(277, 70, 1, 'issue 17', 'HKD', 0.036, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="K278" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(278, 70, 2, 'issue 18', 'GBP', 0.037, 9300, 0);</v>
+        <v>insert into bond_position values(278, 70, 2, 'issue 18', 'GBP', 0.037, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="K279" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(279, 70, 3, 'issue 19', 'USD', 0.038, 9200, 0);</v>
+        <v>insert into bond_position values(279, 70, 3, 'issue 19', 'USD', 0.038, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="K280" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(280, 70, 4, 'issue 20', 'SGD', 0.039, 9100, 0);</v>
+        <v>insert into bond_position values(280, 70, 4, 'issue 20', 'SGD', 0.039, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="K281" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(281, 71, 1, 'issue 1', 'HKD', 0.04, 9000, 0);</v>
+        <v>insert into bond_position values(281, 71, 1, 'issue 1', 'HKD', 0.04, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="K282" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(282, 71, 2, 'issue 2', 'GBP', 0.041, 8900, 0);</v>
+        <v>insert into bond_position values(282, 71, 2, 'issue 2', 'GBP', 0.041, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="K283" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(283, 71, 3, 'issue 3', 'USD', 0.042, 8800, 0);</v>
+        <v>insert into bond_position values(283, 71, 3, 'issue 3', 'USD', 0.042, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="K284" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(284, 71, 4, 'issue 4', 'SGD', 0.043, 8700, 0);</v>
+        <v>insert into bond_position values(284, 71, 4, 'issue 4', 'SGD', 0.043, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="K285" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(285, 72, 1, 'issue 5', 'HKD', 0.044, 8600, 0);</v>
+        <v>insert into bond_position values(285, 72, 1, 'issue 5', 'HKD', 0.044, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="K286" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(286, 72, 2, 'issue 6', 'GBP', 0.045, 8500, 0);</v>
+        <v>insert into bond_position values(286, 72, 2, 'issue 6', 'GBP', 0.045, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="K287" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(287, 72, 3, 'issue 7', 'USD', 0.046, 8400, 0);</v>
+        <v>insert into bond_position values(287, 72, 3, 'issue 7', 'USD', 0.046, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="K288" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(288, 72, 4, 'issue 8', 'SGD', 0.047, 8300, 0);</v>
+        <v>insert into bond_position values(288, 72, 4, 'issue 8', 'SGD', 0.047, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="K289" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(289, 73, 1, 'issue 9', 'HKD', 0.048, 8200, 0);</v>
+        <v>insert into bond_position values(289, 73, 1, 'issue 9', 'HKD', 0.048, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -14870,7 +14870,7 @@
       </c>
       <c r="K290" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(290, 73, 2, 'issue 10', 'GBP', 0.049, 8100, 0);</v>
+        <v>insert into bond_position values(290, 73, 2, 'issue 10', 'GBP', 0.049, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="K291" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(291, 73, 3, 'issue 11', 'USD', 0.05, 8000, 0);</v>
+        <v>insert into bond_position values(291, 73, 3, 'issue 11', 'USD', 0.05, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="K292" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(292, 73, 4, 'issue 12', 'SGD', 0.051, 7900, 0);</v>
+        <v>insert into bond_position values(292, 73, 4, 'issue 12', 'SGD', 0.051, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="K293" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(293, 74, 1, 'issue 13', 'HKD', 0.052, 7800, 0);</v>
+        <v>insert into bond_position values(293, 74, 1, 'issue 13', 'HKD', 0.052, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="K294" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(294, 74, 2, 'issue 14', 'GBP', 0.053, 7700, 0);</v>
+        <v>insert into bond_position values(294, 74, 2, 'issue 14', 'GBP', 0.053, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="K295" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(295, 74, 3, 'issue 15', 'USD', 0.054, 7600, 0);</v>
+        <v>insert into bond_position values(295, 74, 3, 'issue 15', 'USD', 0.054, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="K296" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(296, 74, 4, 'issue 16', 'SGD', 0.055, 7500, 0);</v>
+        <v>insert into bond_position values(296, 74, 4, 'issue 16', 'SGD', 0.055, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="K297" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(297, 75, 1, 'issue 17', 'HKD', 0.056, 7400, 0);</v>
+        <v>insert into bond_position values(297, 75, 1, 'issue 17', 'HKD', 0.056, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="K298" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(298, 75, 2, 'issue 18', 'GBP', 0.057, 7300, 0);</v>
+        <v>insert into bond_position values(298, 75, 2, 'issue 18', 'GBP', 0.057, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="K299" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(299, 75, 3, 'issue 19', 'USD', 0.058, 7200, 0);</v>
+        <v>insert into bond_position values(299, 75, 3, 'issue 19', 'USD', 0.058, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="K300" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(300, 75, 4, 'issue 20', 'SGD', 0.059, 7100, 0);</v>
+        <v>insert into bond_position values(300, 75, 4, 'issue 20', 'SGD', 0.059, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="K301" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(301, 76, 1, 'issue 1', 'HKD', 0.01, 10000, 0);</v>
+        <v>insert into bond_position values(301, 76, 1, 'issue 1', 'HKD', 0.01, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="K302" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(302, 76, 2, 'issue 2', 'GBP', 0.011, 9900, 0);</v>
+        <v>insert into bond_position values(302, 76, 2, 'issue 2', 'GBP', 0.011, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="K303" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(303, 76, 3, 'issue 3', 'USD', 0.012, 9800, 0);</v>
+        <v>insert into bond_position values(303, 76, 3, 'issue 3', 'USD', 0.012, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="K304" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(304, 76, 4, 'issue 4', 'SGD', 0.013, 9700, 0);</v>
+        <v>insert into bond_position values(304, 76, 4, 'issue 4', 'SGD', 0.013, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
@@ -15380,7 +15380,7 @@
       </c>
       <c r="K305" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(305, 77, 1, 'issue 5', 'HKD', 0.014, 9600, 0);</v>
+        <v>insert into bond_position values(305, 77, 1, 'issue 5', 'HKD', 0.014, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="K306" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(306, 77, 2, 'issue 6', 'GBP', 0.015, 9500, 0);</v>
+        <v>insert into bond_position values(306, 77, 2, 'issue 6', 'GBP', 0.015, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="K307" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(307, 77, 3, 'issue 7', 'USD', 0.016, 9400, 0);</v>
+        <v>insert into bond_position values(307, 77, 3, 'issue 7', 'USD', 0.016, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="K308" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(308, 77, 4, 'issue 8', 'SGD', 0.017, 9300, 0);</v>
+        <v>insert into bond_position values(308, 77, 4, 'issue 8', 'SGD', 0.017, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="K309" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(309, 78, 1, 'issue 9', 'HKD', 0.018, 9200, 0);</v>
+        <v>insert into bond_position values(309, 78, 1, 'issue 9', 'HKD', 0.018, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="K310" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(310, 78, 2, 'issue 10', 'GBP', 0.019, 9100, 0);</v>
+        <v>insert into bond_position values(310, 78, 2, 'issue 10', 'GBP', 0.019, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="K311" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(311, 78, 3, 'issue 11', 'USD', 0.02, 9000, 0);</v>
+        <v>insert into bond_position values(311, 78, 3, 'issue 11', 'USD', 0.02, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
@@ -15618,7 +15618,7 @@
       </c>
       <c r="K312" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(312, 78, 4, 'issue 12', 'SGD', 0.021, 8900, 0);</v>
+        <v>insert into bond_position values(312, 78, 4, 'issue 12', 'SGD', 0.021, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="K313" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(313, 79, 1, 'issue 13', 'HKD', 0.022, 8800, 0);</v>
+        <v>insert into bond_position values(313, 79, 1, 'issue 13', 'HKD', 0.022, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="K314" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(314, 79, 2, 'issue 14', 'GBP', 0.023, 8700, 0);</v>
+        <v>insert into bond_position values(314, 79, 2, 'issue 14', 'GBP', 0.023, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="K315" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(315, 79, 3, 'issue 15', 'USD', 0.024, 8600, 0);</v>
+        <v>insert into bond_position values(315, 79, 3, 'issue 15', 'USD', 0.024, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="K316" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(316, 79, 4, 'issue 16', 'SGD', 0.025, 8500, 0);</v>
+        <v>insert into bond_position values(316, 79, 4, 'issue 16', 'SGD', 0.025, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
@@ -15788,7 +15788,7 @@
       </c>
       <c r="K317" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(317, 80, 1, 'issue 17', 'HKD', 0.026, 8400, 0);</v>
+        <v>insert into bond_position values(317, 80, 1, 'issue 17', 'HKD', 0.026, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="K318" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(318, 80, 2, 'issue 18', 'GBP', 0.027, 8300, 0);</v>
+        <v>insert into bond_position values(318, 80, 2, 'issue 18', 'GBP', 0.027, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="K319" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(319, 80, 3, 'issue 19', 'USD', 0.028, 8200, 0);</v>
+        <v>insert into bond_position values(319, 80, 3, 'issue 19', 'USD', 0.028, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="K320" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(320, 80, 4, 'issue 20', 'SGD', 0.029, 8100, 0);</v>
+        <v>insert into bond_position values(320, 80, 4, 'issue 20', 'SGD', 0.029, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="K321" t="str">
         <f t="shared" si="10"/>
-        <v>insert into bond_position values(321, 81, 1, 'issue 1', 'HKD', 0.03, 8000, 0);</v>
+        <v>insert into bond_position values(321, 81, 1, 'issue 1', 'HKD', 0.03, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
@@ -15957,8 +15957,8 @@
         <v>0</v>
       </c>
       <c r="K322" t="str">
-        <f t="shared" ref="K322:K385" si="12">CONCATENATE("insert into bond_position values(", A322, ", ", B322, ", ", C322, ", '", D322, "', '", E322, "', ", F322, ", ", H322, ", ", I322, ");")</f>
-        <v>insert into bond_position values(322, 81, 2, 'issue 2', 'GBP', 0.031, 7900, 0);</v>
+        <f t="shared" ref="K322:K385" si="12">CONCATENATE("insert into bond_position values(", A322, ", ", B322, ", ", C322, ", '", D322, "', '", E322, "', ", F322, ", ", G322, ", ", H322, ", ", I322, ");")</f>
+        <v>insert into bond_position values(322, 81, 2, 'issue 2', 'GBP', 0.031, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="K323" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(323, 81, 3, 'issue 3', 'USD', 0.032, 7800, 0);</v>
+        <v>insert into bond_position values(323, 81, 3, 'issue 3', 'USD', 0.032, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="K324" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(324, 81, 4, 'issue 4', 'SGD', 0.033, 7700, 0);</v>
+        <v>insert into bond_position values(324, 81, 4, 'issue 4', 'SGD', 0.033, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="K325" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(325, 82, 1, 'issue 5', 'HKD', 0.034, 7600, 0);</v>
+        <v>insert into bond_position values(325, 82, 1, 'issue 5', 'HKD', 0.034, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="K326" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(326, 82, 2, 'issue 6', 'GBP', 0.035, 7500, 0);</v>
+        <v>insert into bond_position values(326, 82, 2, 'issue 6', 'GBP', 0.035, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="K327" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(327, 82, 3, 'issue 7', 'USD', 0.036, 7400, 0);</v>
+        <v>insert into bond_position values(327, 82, 3, 'issue 7', 'USD', 0.036, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="K328" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(328, 82, 4, 'issue 8', 'SGD', 0.037, 7300, 0);</v>
+        <v>insert into bond_position values(328, 82, 4, 'issue 8', 'SGD', 0.037, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="K329" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(329, 83, 1, 'issue 9', 'HKD', 0.038, 7200, 0);</v>
+        <v>insert into bond_position values(329, 83, 1, 'issue 9', 'HKD', 0.038, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="K330" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(330, 83, 2, 'issue 10', 'GBP', 0.039, 7100, 0);</v>
+        <v>insert into bond_position values(330, 83, 2, 'issue 10', 'GBP', 0.039, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="K331" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(331, 83, 3, 'issue 11', 'USD', 0.04, 10000, 0);</v>
+        <v>insert into bond_position values(331, 83, 3, 'issue 11', 'USD', 0.04, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="K332" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(332, 83, 4, 'issue 12', 'SGD', 0.041, 9900, 0);</v>
+        <v>insert into bond_position values(332, 83, 4, 'issue 12', 'SGD', 0.041, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="K333" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(333, 84, 1, 'issue 13', 'HKD', 0.042, 9800, 0);</v>
+        <v>insert into bond_position values(333, 84, 1, 'issue 13', 'HKD', 0.042, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="K334" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(334, 84, 2, 'issue 14', 'GBP', 0.043, 9700, 0);</v>
+        <v>insert into bond_position values(334, 84, 2, 'issue 14', 'GBP', 0.043, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="K335" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(335, 84, 3, 'issue 15', 'USD', 0.044, 9600, 0);</v>
+        <v>insert into bond_position values(335, 84, 3, 'issue 15', 'USD', 0.044, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="K336" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(336, 84, 4, 'issue 16', 'SGD', 0.045, 9500, 0);</v>
+        <v>insert into bond_position values(336, 84, 4, 'issue 16', 'SGD', 0.045, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="K337" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(337, 85, 1, 'issue 17', 'HKD', 0.046, 9400, 0);</v>
+        <v>insert into bond_position values(337, 85, 1, 'issue 17', 'HKD', 0.046, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="K338" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(338, 85, 2, 'issue 18', 'GBP', 0.047, 9300, 0);</v>
+        <v>insert into bond_position values(338, 85, 2, 'issue 18', 'GBP', 0.047, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="K339" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(339, 85, 3, 'issue 19', 'USD', 0.048, 9200, 0);</v>
+        <v>insert into bond_position values(339, 85, 3, 'issue 19', 'USD', 0.048, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="K340" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(340, 85, 4, 'issue 20', 'SGD', 0.049, 9100, 0);</v>
+        <v>insert into bond_position values(340, 85, 4, 'issue 20', 'SGD', 0.049, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="K341" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(341, 86, 1, 'issue 1', 'HKD', 0.05, 9000, 0);</v>
+        <v>insert into bond_position values(341, 86, 1, 'issue 1', 'HKD', 0.05, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="K342" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(342, 86, 2, 'issue 2', 'GBP', 0.051, 8900, 0);</v>
+        <v>insert into bond_position values(342, 86, 2, 'issue 2', 'GBP', 0.051, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="K343" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(343, 86, 3, 'issue 3', 'USD', 0.052, 8800, 0);</v>
+        <v>insert into bond_position values(343, 86, 3, 'issue 3', 'USD', 0.052, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="K344" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(344, 86, 4, 'issue 4', 'SGD', 0.053, 8700, 0);</v>
+        <v>insert into bond_position values(344, 86, 4, 'issue 4', 'SGD', 0.053, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="K345" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(345, 87, 1, 'issue 5', 'HKD', 0.054, 8600, 0);</v>
+        <v>insert into bond_position values(345, 87, 1, 'issue 5', 'HKD', 0.054, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="K346" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(346, 87, 2, 'issue 6', 'GBP', 0.055, 8500, 0);</v>
+        <v>insert into bond_position values(346, 87, 2, 'issue 6', 'GBP', 0.055, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="K347" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(347, 87, 3, 'issue 7', 'USD', 0.056, 8400, 0);</v>
+        <v>insert into bond_position values(347, 87, 3, 'issue 7', 'USD', 0.056, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -16842,7 +16842,7 @@
       </c>
       <c r="K348" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(348, 87, 4, 'issue 8', 'SGD', 0.057, 8300, 0);</v>
+        <v>insert into bond_position values(348, 87, 4, 'issue 8', 'SGD', 0.057, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="K349" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(349, 88, 1, 'issue 9', 'HKD', 0.058, 8200, 0);</v>
+        <v>insert into bond_position values(349, 88, 1, 'issue 9', 'HKD', 0.058, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="K350" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(350, 88, 2, 'issue 10', 'GBP', 0.059, 8100, 0);</v>
+        <v>insert into bond_position values(350, 88, 2, 'issue 10', 'GBP', 0.059, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
@@ -16944,7 +16944,7 @@
       </c>
       <c r="K351" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(351, 88, 3, 'issue 11', 'USD', 0.01, 8000, 0);</v>
+        <v>insert into bond_position values(351, 88, 3, 'issue 11', 'USD', 0.01, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="K352" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(352, 88, 4, 'issue 12', 'SGD', 0.011, 7900, 0);</v>
+        <v>insert into bond_position values(352, 88, 4, 'issue 12', 'SGD', 0.011, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="K353" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(353, 89, 1, 'issue 13', 'HKD', 0.012, 7800, 0);</v>
+        <v>insert into bond_position values(353, 89, 1, 'issue 13', 'HKD', 0.012, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="K354" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(354, 89, 2, 'issue 14', 'GBP', 0.013, 7700, 0);</v>
+        <v>insert into bond_position values(354, 89, 2, 'issue 14', 'GBP', 0.013, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="K355" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(355, 89, 3, 'issue 15', 'USD', 0.014, 7600, 0);</v>
+        <v>insert into bond_position values(355, 89, 3, 'issue 15', 'USD', 0.014, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="K356" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(356, 89, 4, 'issue 16', 'SGD', 0.015, 7500, 0);</v>
+        <v>insert into bond_position values(356, 89, 4, 'issue 16', 'SGD', 0.015, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
@@ -17148,7 +17148,7 @@
       </c>
       <c r="K357" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(357, 90, 1, 'issue 17', 'HKD', 0.016, 7400, 0);</v>
+        <v>insert into bond_position values(357, 90, 1, 'issue 17', 'HKD', 0.016, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="K358" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(358, 90, 2, 'issue 18', 'GBP', 0.017, 7300, 0);</v>
+        <v>insert into bond_position values(358, 90, 2, 'issue 18', 'GBP', 0.017, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
@@ -17216,7 +17216,7 @@
       </c>
       <c r="K359" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(359, 90, 3, 'issue 19', 'USD', 0.018, 7200, 0);</v>
+        <v>insert into bond_position values(359, 90, 3, 'issue 19', 'USD', 0.018, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="K360" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(360, 90, 4, 'issue 20', 'SGD', 0.019, 7100, 0);</v>
+        <v>insert into bond_position values(360, 90, 4, 'issue 20', 'SGD', 0.019, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="K361" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(361, 91, 1, 'issue 1', 'HKD', 0.02, 10000, 0);</v>
+        <v>insert into bond_position values(361, 91, 1, 'issue 1', 'HKD', 0.02, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="K362" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(362, 91, 2, 'issue 2', 'GBP', 0.021, 9900, 0);</v>
+        <v>insert into bond_position values(362, 91, 2, 'issue 2', 'GBP', 0.021, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="K363" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(363, 91, 3, 'issue 3', 'USD', 0.022, 9800, 0);</v>
+        <v>insert into bond_position values(363, 91, 3, 'issue 3', 'USD', 0.022, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="K364" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(364, 91, 4, 'issue 4', 'SGD', 0.023, 9700, 0);</v>
+        <v>insert into bond_position values(364, 91, 4, 'issue 4', 'SGD', 0.023, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="K365" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(365, 92, 1, 'issue 5', 'HKD', 0.024, 9600, 0);</v>
+        <v>insert into bond_position values(365, 92, 1, 'issue 5', 'HKD', 0.024, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
@@ -17454,7 +17454,7 @@
       </c>
       <c r="K366" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(366, 92, 2, 'issue 6', 'GBP', 0.025, 9500, 0);</v>
+        <v>insert into bond_position values(366, 92, 2, 'issue 6', 'GBP', 0.025, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="K367" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(367, 92, 3, 'issue 7', 'USD', 0.026, 9400, 0);</v>
+        <v>insert into bond_position values(367, 92, 3, 'issue 7', 'USD', 0.026, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="K368" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(368, 92, 4, 'issue 8', 'SGD', 0.027, 9300, 0);</v>
+        <v>insert into bond_position values(368, 92, 4, 'issue 8', 'SGD', 0.027, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="K369" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(369, 93, 1, 'issue 9', 'HKD', 0.028, 9200, 0);</v>
+        <v>insert into bond_position values(369, 93, 1, 'issue 9', 'HKD', 0.028, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="K370" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(370, 93, 2, 'issue 10', 'GBP', 0.029, 9100, 0);</v>
+        <v>insert into bond_position values(370, 93, 2, 'issue 10', 'GBP', 0.029, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
@@ -17624,7 +17624,7 @@
       </c>
       <c r="K371" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(371, 93, 3, 'issue 11', 'USD', 0.03, 9000, 0);</v>
+        <v>insert into bond_position values(371, 93, 3, 'issue 11', 'USD', 0.03, 100, 9000, 0);</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="K372" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(372, 93, 4, 'issue 12', 'SGD', 0.031, 8900, 0);</v>
+        <v>insert into bond_position values(372, 93, 4, 'issue 12', 'SGD', 0.031, 80, 8900, 0);</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="K373" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(373, 94, 1, 'issue 13', 'HKD', 0.032, 8800, 0);</v>
+        <v>insert into bond_position values(373, 94, 1, 'issue 13', 'HKD', 0.032, 60, 8800, 0);</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="K374" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(374, 94, 2, 'issue 14', 'GBP', 0.033, 8700, 0);</v>
+        <v>insert into bond_position values(374, 94, 2, 'issue 14', 'GBP', 0.033, 40, 8700, 0);</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
@@ -17760,7 +17760,7 @@
       </c>
       <c r="K375" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(375, 94, 3, 'issue 15', 'USD', 0.034, 8600, 0);</v>
+        <v>insert into bond_position values(375, 94, 3, 'issue 15', 'USD', 0.034, 20, 8600, 0);</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
@@ -17794,7 +17794,7 @@
       </c>
       <c r="K376" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(376, 94, 4, 'issue 16', 'SGD', 0.035, 8500, 0);</v>
+        <v>insert into bond_position values(376, 94, 4, 'issue 16', 'SGD', 0.035, 100, 8500, 0);</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="K377" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(377, 95, 1, 'issue 17', 'HKD', 0.036, 8400, 0);</v>
+        <v>insert into bond_position values(377, 95, 1, 'issue 17', 'HKD', 0.036, 80, 8400, 0);</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="K378" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(378, 95, 2, 'issue 18', 'GBP', 0.037, 8300, 0);</v>
+        <v>insert into bond_position values(378, 95, 2, 'issue 18', 'GBP', 0.037, 60, 8300, 0);</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="K379" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(379, 95, 3, 'issue 19', 'USD', 0.038, 8200, 0);</v>
+        <v>insert into bond_position values(379, 95, 3, 'issue 19', 'USD', 0.038, 40, 8200, 0);</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
@@ -17930,7 +17930,7 @@
       </c>
       <c r="K380" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(380, 95, 4, 'issue 20', 'SGD', 0.039, 8100, 0);</v>
+        <v>insert into bond_position values(380, 95, 4, 'issue 20', 'SGD', 0.039, 20, 8100, 0);</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="K381" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(381, 96, 1, 'issue 1', 'HKD', 0.04, 8000, 0);</v>
+        <v>insert into bond_position values(381, 96, 1, 'issue 1', 'HKD', 0.04, 100, 8000, 0);</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="K382" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(382, 96, 2, 'issue 2', 'GBP', 0.041, 7900, 0);</v>
+        <v>insert into bond_position values(382, 96, 2, 'issue 2', 'GBP', 0.041, 80, 7900, 0);</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="K383" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(383, 96, 3, 'issue 3', 'USD', 0.042, 7800, 0);</v>
+        <v>insert into bond_position values(383, 96, 3, 'issue 3', 'USD', 0.042, 60, 7800, 0);</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
@@ -18066,7 +18066,7 @@
       </c>
       <c r="K384" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(384, 96, 4, 'issue 4', 'SGD', 0.043, 7700, 0);</v>
+        <v>insert into bond_position values(384, 96, 4, 'issue 4', 'SGD', 0.043, 40, 7700, 0);</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="K385" t="str">
         <f t="shared" si="12"/>
-        <v>insert into bond_position values(385, 97, 1, 'issue 5', 'HKD', 0.044, 7600, 0);</v>
+        <v>insert into bond_position values(385, 97, 1, 'issue 5', 'HKD', 0.044, 20, 7600, 0);</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
@@ -18133,8 +18133,8 @@
         <v>0</v>
       </c>
       <c r="K386" t="str">
-        <f t="shared" ref="K386:K400" si="14">CONCATENATE("insert into bond_position values(", A386, ", ", B386, ", ", C386, ", '", D386, "', '", E386, "', ", F386, ", ", H386, ", ", I386, ");")</f>
-        <v>insert into bond_position values(386, 97, 2, 'issue 6', 'GBP', 0.045, 7500, 0);</v>
+        <f t="shared" ref="K386:K400" si="14">CONCATENATE("insert into bond_position values(", A386, ", ", B386, ", ", C386, ", '", D386, "', '", E386, "', ", F386, ", ", G386, ", ", H386, ", ", I386, ");")</f>
+        <v>insert into bond_position values(386, 97, 2, 'issue 6', 'GBP', 0.045, 100, 7500, 0);</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="K387" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(387, 97, 3, 'issue 7', 'USD', 0.046, 7400, 0);</v>
+        <v>insert into bond_position values(387, 97, 3, 'issue 7', 'USD', 0.046, 80, 7400, 0);</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="K388" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(388, 97, 4, 'issue 8', 'SGD', 0.047, 7300, 0);</v>
+        <v>insert into bond_position values(388, 97, 4, 'issue 8', 'SGD', 0.047, 60, 7300, 0);</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="K389" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(389, 98, 1, 'issue 9', 'HKD', 0.048, 7200, 0);</v>
+        <v>insert into bond_position values(389, 98, 1, 'issue 9', 'HKD', 0.048, 40, 7200, 0);</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="K390" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(390, 98, 2, 'issue 10', 'GBP', 0.049, 7100, 0);</v>
+        <v>insert into bond_position values(390, 98, 2, 'issue 10', 'GBP', 0.049, 20, 7100, 0);</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
@@ -18304,7 +18304,7 @@
       </c>
       <c r="K391" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(391, 98, 3, 'issue 11', 'USD', 0.05, 10000, 0);</v>
+        <v>insert into bond_position values(391, 98, 3, 'issue 11', 'USD', 0.05, 100, 10000, 0);</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="K392" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(392, 98, 4, 'issue 12', 'SGD', 0.051, 9900, 0);</v>
+        <v>insert into bond_position values(392, 98, 4, 'issue 12', 'SGD', 0.051, 80, 9900, 0);</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
@@ -18372,7 +18372,7 @@
       </c>
       <c r="K393" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(393, 99, 1, 'issue 13', 'HKD', 0.052, 9800, 0);</v>
+        <v>insert into bond_position values(393, 99, 1, 'issue 13', 'HKD', 0.052, 60, 9800, 0);</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="K394" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(394, 99, 2, 'issue 14', 'GBP', 0.053, 9700, 0);</v>
+        <v>insert into bond_position values(394, 99, 2, 'issue 14', 'GBP', 0.053, 40, 9700, 0);</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="K395" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(395, 99, 3, 'issue 15', 'USD', 0.054, 9600, 0);</v>
+        <v>insert into bond_position values(395, 99, 3, 'issue 15', 'USD', 0.054, 20, 9600, 0);</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="K396" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(396, 99, 4, 'issue 16', 'SGD', 0.055, 9500, 0);</v>
+        <v>insert into bond_position values(396, 99, 4, 'issue 16', 'SGD', 0.055, 100, 9500, 0);</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="K397" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(397, 100, 1, 'issue 17', 'HKD', 0.056, 9400, 0);</v>
+        <v>insert into bond_position values(397, 100, 1, 'issue 17', 'HKD', 0.056, 80, 9400, 0);</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
@@ -18542,7 +18542,7 @@
       </c>
       <c r="K398" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(398, 100, 2, 'issue 18', 'GBP', 0.057, 9300, 0);</v>
+        <v>insert into bond_position values(398, 100, 2, 'issue 18', 'GBP', 0.057, 60, 9300, 0);</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="K399" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(399, 100, 3, 'issue 19', 'USD', 0.058, 9200, 0);</v>
+        <v>insert into bond_position values(399, 100, 3, 'issue 19', 'USD', 0.058, 40, 9200, 0);</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="K400" t="str">
         <f t="shared" si="14"/>
-        <v>insert into bond_position values(400, 100, 4, 'issue 20', 'SGD', 0.059, 9100, 0);</v>
+        <v>insert into bond_position values(400, 100, 4, 'issue 20', 'SGD', 0.059, 20, 9100, 0);</v>
       </c>
     </row>
     <row r="401" spans="4:5" x14ac:dyDescent="0.2">
@@ -66822,7 +66822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
